--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -896,6 +896,35 @@
         <v>13317.924994</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1657238.437593</v>
+      </c>
+      <c r="C16" t="n">
+        <v>20357.699105</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1636880.738488</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12974.03040366667</v>
+      </c>
+      <c r="F16" t="n">
+        <v>748182.757149</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14232.5759</v>
+      </c>
+      <c r="H16" t="n">
+        <v>733950.18125</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14840.43002133333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -925,6 +925,35 @@
         <v>14840.43002133333</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2985065.736644</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21057.645339</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2964008.091305</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13607.360941</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1290516.054363</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14272.357413</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1276243.69695</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15537.91470366667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -954,6 +954,151 @@
         <v>15537.91470366667</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4236727.498161</v>
+      </c>
+      <c r="C18" t="n">
+        <v>21243.694582</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4215483.803579</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13991.442363</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1760426.373385</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14071.290441</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1746355.082944</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15981.531147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5117794.229655</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21393.73706</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5096400.492595</v>
+      </c>
+      <c r="E19" t="n">
+        <v>14391.29253366667</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2050415.88006</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13914.390853</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2036501.489207</v>
+      </c>
+      <c r="I19" t="n">
+        <v>16453.033397</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5880494.184356</v>
+      </c>
+      <c r="C20" t="n">
+        <v>21702.176071</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5858792.008285</v>
+      </c>
+      <c r="E20" t="n">
+        <v>14916.40278166667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2266081.715755</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13768.710049</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2252313.005706</v>
+      </c>
+      <c r="I20" t="n">
+        <v>17045.34805033333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6426087.193499</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21818.546042</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6404268.647457</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15350.98245466666</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2395551.12106</v>
+      </c>
+      <c r="G21" t="n">
+        <v>13640.013058</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2381911.108002</v>
+      </c>
+      <c r="I21" t="n">
+        <v>17559.29677233333</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6841596.896981</v>
+      </c>
+      <c r="C22" t="n">
+        <v>22087.582224</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6819509.314757</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15900.36611133333</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2470749.551649</v>
+      </c>
+      <c r="G22" t="n">
+        <v>13579.795378</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2457169.756271</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18182.396295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -495,28 +495,28 @@
         <v>0.01</v>
       </c>
       <c r="B2" t="n">
-        <v>5793.051934</v>
+        <v>7173.133838</v>
       </c>
       <c r="C2" t="n">
-        <v>4793.051934</v>
+        <v>6173.133838</v>
       </c>
       <c r="D2" t="n">
         <v>1000</v>
       </c>
       <c r="E2" t="n">
-        <v>4369.380304333333</v>
+        <v>5736.206039333334</v>
       </c>
       <c r="F2" t="n">
-        <v>5834.240506</v>
+        <v>7193.05485</v>
       </c>
       <c r="G2" t="n">
-        <v>4834.240506</v>
+        <v>6193.05485</v>
       </c>
       <c r="H2" t="n">
         <v>1000</v>
       </c>
       <c r="I2" t="n">
-        <v>4836.478388333333</v>
+        <v>6203.567016666668</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +524,28 @@
         <v>0.03</v>
       </c>
       <c r="B3" t="n">
-        <v>5858.433572</v>
+        <v>7280.891622</v>
       </c>
       <c r="C3" t="n">
-        <v>4858.433572</v>
+        <v>6280.891622</v>
       </c>
       <c r="D3" t="n">
         <v>1000</v>
       </c>
       <c r="E3" t="n">
-        <v>4410.11708</v>
+        <v>5810.779687333333</v>
       </c>
       <c r="F3" t="n">
-        <v>5872.207608</v>
+        <v>7275.870006</v>
       </c>
       <c r="G3" t="n">
-        <v>4872.207608</v>
+        <v>6275.870006</v>
       </c>
       <c r="H3" t="n">
         <v>1000</v>
       </c>
       <c r="I3" t="n">
-        <v>4879.343638666666</v>
+        <v>6286.564092666667</v>
       </c>
     </row>
     <row r="4">
@@ -553,28 +553,28 @@
         <v>0.05</v>
       </c>
       <c r="B4" t="n">
-        <v>5894.277286</v>
+        <v>7341.247585</v>
       </c>
       <c r="C4" t="n">
-        <v>4894.277286</v>
+        <v>6341.247585</v>
       </c>
       <c r="D4" t="n">
         <v>1000</v>
       </c>
       <c r="E4" t="n">
-        <v>4435.926576999999</v>
+        <v>5849.035594333333</v>
       </c>
       <c r="F4" t="n">
-        <v>5903.339804</v>
+        <v>7331.611144</v>
       </c>
       <c r="G4" t="n">
-        <v>4903.339804</v>
+        <v>6331.611144</v>
       </c>
       <c r="H4" t="n">
         <v>1000</v>
       </c>
       <c r="I4" t="n">
-        <v>4912.129360666667</v>
+        <v>6337.965039</v>
       </c>
     </row>
     <row r="5">
@@ -582,28 +582,28 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>6037.336376</v>
+        <v>7595.599797</v>
       </c>
       <c r="C5" t="n">
-        <v>5037.336376</v>
+        <v>6595.586358</v>
       </c>
       <c r="D5" t="n">
-        <v>1000</v>
+        <v>1000.013439</v>
       </c>
       <c r="E5" t="n">
-        <v>4505.116047333334</v>
+        <v>5991.863622</v>
       </c>
       <c r="F5" t="n">
-        <v>6007.613421</v>
+        <v>7541.97308</v>
       </c>
       <c r="G5" t="n">
-        <v>5007.613421</v>
+        <v>6541.96681</v>
       </c>
       <c r="H5" t="n">
-        <v>1000</v>
+        <v>1000.006269</v>
       </c>
       <c r="I5" t="n">
-        <v>5008.411500333334</v>
+        <v>6542.697749</v>
       </c>
     </row>
     <row r="6">
@@ -611,28 +611,28 @@
         <v>0.15</v>
       </c>
       <c r="B6" t="n">
-        <v>6200.236695</v>
+        <v>7966.155545</v>
       </c>
       <c r="C6" t="n">
-        <v>5200.138221</v>
+        <v>6965.985549</v>
       </c>
       <c r="D6" t="n">
-        <v>1000.098474</v>
+        <v>1000.169996</v>
       </c>
       <c r="E6" t="n">
-        <v>4600.728950333333</v>
+        <v>6207.655787666667</v>
       </c>
       <c r="F6" t="n">
-        <v>6146.168682</v>
+        <v>7863.416632</v>
       </c>
       <c r="G6" t="n">
-        <v>5146.122762</v>
+        <v>6863.337247</v>
       </c>
       <c r="H6" t="n">
-        <v>1000.045919</v>
+        <v>1000.079385</v>
       </c>
       <c r="I6" t="n">
-        <v>5147.672062000001</v>
+        <v>6861.860122000001</v>
       </c>
     </row>
     <row r="7">
@@ -640,28 +640,28 @@
         <v>0.2</v>
       </c>
       <c r="B7" t="n">
-        <v>6391.183419</v>
+        <v>8498.084977</v>
       </c>
       <c r="C7" t="n">
-        <v>5390.747154</v>
+        <v>7497.400801</v>
       </c>
       <c r="D7" t="n">
-        <v>1000.436265</v>
+        <v>1000.684176</v>
       </c>
       <c r="E7" t="n">
-        <v>4709.541205</v>
+        <v>6527.372342333333</v>
       </c>
       <c r="F7" t="n">
-        <v>6315.335219</v>
+        <v>8324.692282</v>
       </c>
       <c r="G7" t="n">
-        <v>5315.13181</v>
+        <v>7324.3729</v>
       </c>
       <c r="H7" t="n">
-        <v>1000.20341</v>
+        <v>1000.319382</v>
       </c>
       <c r="I7" t="n">
-        <v>5317.001964333333</v>
+        <v>7323.564589000001</v>
       </c>
     </row>
     <row r="8">
@@ -669,28 +669,28 @@
         <v>0.25</v>
       </c>
       <c r="B8" t="n">
-        <v>6639.648164</v>
+        <v>9442.517527</v>
       </c>
       <c r="C8" t="n">
-        <v>5637.524463</v>
+        <v>8439.661268</v>
       </c>
       <c r="D8" t="n">
-        <v>1002.123702</v>
+        <v>1002.856259</v>
       </c>
       <c r="E8" t="n">
-        <v>4852.334717000001</v>
+        <v>7087.346924333334</v>
       </c>
       <c r="F8" t="n">
-        <v>6529.588937</v>
+        <v>9077.910517</v>
       </c>
       <c r="G8" t="n">
-        <v>5528.600805</v>
+        <v>8076.578393</v>
       </c>
       <c r="H8" t="n">
-        <v>1000.988132</v>
+        <v>1001.332125</v>
       </c>
       <c r="I8" t="n">
-        <v>5535.715037999999</v>
+        <v>8081.934995333334</v>
       </c>
     </row>
     <row r="9">
@@ -698,405 +698,28 @@
         <v>0.3</v>
       </c>
       <c r="B9" t="n">
-        <v>6970.688791</v>
+        <v>11748.808007</v>
       </c>
       <c r="C9" t="n">
-        <v>5965.029461</v>
+        <v>10730.621608</v>
       </c>
       <c r="D9" t="n">
-        <v>1005.65933</v>
+        <v>1018.186398</v>
       </c>
       <c r="E9" t="n">
-        <v>5048.525075</v>
+        <v>8369.032585999999</v>
       </c>
       <c r="F9" t="n">
-        <v>6824.862159</v>
+        <v>10627.947995</v>
       </c>
       <c r="G9" t="n">
-        <v>5822.228288</v>
+        <v>9619.474072999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1002.633871</v>
+        <v>1008.473923</v>
       </c>
       <c r="I9" t="n">
-        <v>5829.845438</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7393.831659</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6378.169465</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1015.662194</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5296.928606666667</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7192.569524</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6185.272055</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1007.297469</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6190.386768666666</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7964.58162</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6930.080708</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1034.500913</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5629.711921666666</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7672.33402</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6656.247948</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1016.086072</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6660.858432666667</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="B12" t="n">
-        <v>8820.569142</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7737.386025</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1083.183117</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6118.666528000001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8339.959801999999</v>
-      </c>
-      <c r="G12" t="n">
-        <v>7301.210111</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1038.749691</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7310.521375333333</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>10372.367021</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9110.323339</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1262.043681</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6920.688342333334</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9424.393330999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>8302.225329000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1122.168001</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8307.906024333333</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="B14" t="n">
-        <v>14296.654843</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11532.403804</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2764.251039</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8263.872064000001</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11674.589409</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9851.230351</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1823.359058</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9851.823604333333</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B15" t="n">
-        <v>189857.022604</v>
-      </c>
-      <c r="C15" t="n">
-        <v>17841.143571</v>
-      </c>
-      <c r="D15" t="n">
-        <v>172015.879033</v>
-      </c>
-      <c r="E15" t="n">
-        <v>11520.41209333333</v>
-      </c>
-      <c r="F15" t="n">
-        <v>93783.901664</v>
-      </c>
-      <c r="G15" t="n">
-        <v>13273.507545</v>
-      </c>
-      <c r="H15" t="n">
-        <v>80510.394119</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13317.924994</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1657238.437593</v>
-      </c>
-      <c r="C16" t="n">
-        <v>20357.699105</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1636880.738488</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12974.03040366667</v>
-      </c>
-      <c r="F16" t="n">
-        <v>748182.757149</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14232.5759</v>
-      </c>
-      <c r="H16" t="n">
-        <v>733950.18125</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14840.43002133333</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2985065.736644</v>
-      </c>
-      <c r="C17" t="n">
-        <v>21057.645339</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2964008.091305</v>
-      </c>
-      <c r="E17" t="n">
-        <v>13607.360941</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1290516.054363</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14272.357413</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1276243.69695</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15537.91470366667</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4236727.498161</v>
-      </c>
-      <c r="C18" t="n">
-        <v>21243.694582</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4215483.803579</v>
-      </c>
-      <c r="E18" t="n">
-        <v>13991.442363</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1760426.373385</v>
-      </c>
-      <c r="G18" t="n">
-        <v>14071.290441</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1746355.082944</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15981.531147</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5117794.229655</v>
-      </c>
-      <c r="C19" t="n">
-        <v>21393.73706</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5096400.492595</v>
-      </c>
-      <c r="E19" t="n">
-        <v>14391.29253366667</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2050415.88006</v>
-      </c>
-      <c r="G19" t="n">
-        <v>13914.390853</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2036501.489207</v>
-      </c>
-      <c r="I19" t="n">
-        <v>16453.033397</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5880494.184356</v>
-      </c>
-      <c r="C20" t="n">
-        <v>21702.176071</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5858792.008285</v>
-      </c>
-      <c r="E20" t="n">
-        <v>14916.40278166667</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2266081.715755</v>
-      </c>
-      <c r="G20" t="n">
-        <v>13768.710049</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2252313.005706</v>
-      </c>
-      <c r="I20" t="n">
-        <v>17045.34805033333</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="B21" t="n">
-        <v>6426087.193499</v>
-      </c>
-      <c r="C21" t="n">
-        <v>21818.546042</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6404268.647457</v>
-      </c>
-      <c r="E21" t="n">
-        <v>15350.98245466666</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2395551.12106</v>
-      </c>
-      <c r="G21" t="n">
-        <v>13640.013058</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2381911.108002</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17559.29677233333</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="B22" t="n">
-        <v>6841596.896981</v>
-      </c>
-      <c r="C22" t="n">
-        <v>22087.582224</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6819509.314757</v>
-      </c>
-      <c r="E22" t="n">
-        <v>15900.36611133333</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2470749.551649</v>
-      </c>
-      <c r="G22" t="n">
-        <v>13579.795378</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2457169.756271</v>
-      </c>
-      <c r="I22" t="n">
-        <v>18182.396295</v>
+        <v>9628.793535666666</v>
       </c>
     </row>
   </sheetData>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -722,6 +722,93 @@
         <v>9628.793535666666</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B10" t="n">
+        <v>701999.4142380001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25485.65933</v>
+      </c>
+      <c r="D10" t="n">
+        <v>676513.754908</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15696.92096</v>
+      </c>
+      <c r="F10" t="n">
+        <v>327052.414802</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16903.008564</v>
+      </c>
+      <c r="H10" t="n">
+        <v>310149.406238</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17252.32464266667</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2301811.046997</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31830.510612</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2269980.536385</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19497.82999666667</v>
+      </c>
+      <c r="F11" t="n">
+        <v>987316.1288909999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>19039.975669</v>
+      </c>
+      <c r="H11" t="n">
+        <v>968276.153222</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21175.29658233333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2574588.917021</v>
+      </c>
+      <c r="C12" t="n">
+        <v>36607.053794</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2537981.863227</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23046.86977733333</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1025262.224689</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20152.894303</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1005109.330386</v>
+      </c>
+      <c r="I12" t="n">
+        <v>24845.11606266667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -809,6 +809,122 @@
         <v>24845.11606266667</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3081421.847401</v>
+      </c>
+      <c r="C13" t="n">
+        <v>38928.218222</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3042493.629179</v>
+      </c>
+      <c r="E13" t="n">
+        <v>25787.17308033333</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1140010.440327</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20161.456375</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1119848.983952</v>
+      </c>
+      <c r="I13" t="n">
+        <v>27700.59754266667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3403300.513984</v>
+      </c>
+      <c r="C14" t="n">
+        <v>42702.714682</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3360597.799302</v>
+      </c>
+      <c r="E14" t="n">
+        <v>29979.56488633333</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1176120.188236</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20759.429981</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1155360.758255</v>
+      </c>
+      <c r="I14" t="n">
+        <v>32060.995423</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4156758.015218</v>
+      </c>
+      <c r="C15" t="n">
+        <v>44285.039584</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4112472.975634</v>
+      </c>
+      <c r="E15" t="n">
+        <v>33080.04253033333</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1358508.266211</v>
+      </c>
+      <c r="G15" t="n">
+        <v>20728.391044</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1337779.875167</v>
+      </c>
+      <c r="I15" t="n">
+        <v>35302.04909766667</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4656527.744997</v>
+      </c>
+      <c r="C16" t="n">
+        <v>44774.934837</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4611752.81016</v>
+      </c>
+      <c r="E16" t="n">
+        <v>35804.18152733333</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1447754.652049</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20574.237238</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1427180.414811</v>
+      </c>
+      <c r="I16" t="n">
+        <v>38187.99589733333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -925,6 +925,35 @@
         <v>38187.99589733333</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4882798.597252</v>
+      </c>
+      <c r="C17" t="n">
+        <v>45119.137866</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4837679.459386</v>
+      </c>
+      <c r="E17" t="n">
+        <v>38955.36240733333</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1447410.006967</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20641.353272</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1426768.653694</v>
+      </c>
+      <c r="I17" t="n">
+        <v>41516.32374566666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -954,6 +954,93 @@
         <v>41516.32374566666</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4933110.244521</v>
+      </c>
+      <c r="C18" t="n">
+        <v>46529.238143</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4886581.006379</v>
+      </c>
+      <c r="E18" t="n">
+        <v>130759.439386</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1401001.109276</v>
+      </c>
+      <c r="G18" t="n">
+        <v>22013.885332</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1378987.223945</v>
+      </c>
+      <c r="I18" t="n">
+        <v>139076.682658</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5057225.336225</v>
+      </c>
+      <c r="C19" t="n">
+        <v>52431.195682</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5004794.140543</v>
+      </c>
+      <c r="E19" t="n">
+        <v>158493.584141</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1536912.016744</v>
+      </c>
+      <c r="G19" t="n">
+        <v>30256.719986</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1506655.296759</v>
+      </c>
+      <c r="I19" t="n">
+        <v>167416.276471</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5887332.721518</v>
+      </c>
+      <c r="C20" t="n">
+        <v>53041.027801</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5834291.693717</v>
+      </c>
+      <c r="E20" t="n">
+        <v>161614.921388</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2530383.478741</v>
+      </c>
+      <c r="G20" t="n">
+        <v>32404.702314</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2497978.776427</v>
+      </c>
+      <c r="I20" t="n">
+        <v>170678.598832</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -925,6 +925,151 @@
         <v>26.749201902</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3911.892387694</v>
+      </c>
+      <c r="C17" t="n">
+        <v>37.487058824</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3874.405328872</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25.440260226</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1585.105019658</v>
+      </c>
+      <c r="G17" t="n">
+        <v>23.140807668</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1561.96421199</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26.67706112333333</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4041.011614314</v>
+      </c>
+      <c r="C18" t="n">
+        <v>36.964767414</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4004.0468469</v>
+      </c>
+      <c r="E18" t="n">
+        <v>25.44409872933333</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1608.56998527</v>
+      </c>
+      <c r="G18" t="n">
+        <v>22.774044308</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1585.795940964</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26.68560294533333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4312.789545273999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>36.30853267600001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4276.481012597999</v>
+      </c>
+      <c r="E19" t="n">
+        <v>25.30718837866667</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1696.902866872</v>
+      </c>
+      <c r="G19" t="n">
+        <v>22.475940104</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1674.426926766</v>
+      </c>
+      <c r="I19" t="n">
+        <v>26.55429984466667</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4427.371668214</v>
+      </c>
+      <c r="C20" t="n">
+        <v>35.672811882</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4391.698856334</v>
+      </c>
+      <c r="E20" t="n">
+        <v>25.31023158866667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1708.110787172</v>
+      </c>
+      <c r="G20" t="n">
+        <v>22.116897024</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1685.993890148</v>
+      </c>
+      <c r="I20" t="n">
+        <v>26.56685283933334</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4719.73852585</v>
+      </c>
+      <c r="C21" t="n">
+        <v>35.270357802</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4684.468168048</v>
+      </c>
+      <c r="E21" t="n">
+        <v>25.32196972466667</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1798.145568474</v>
+      </c>
+      <c r="G21" t="n">
+        <v>21.926013394</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1776.21955508</v>
+      </c>
+      <c r="I21" t="n">
+        <v>26.58711745933334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -1070,6 +1070,209 @@
         <v>26.58711745933334</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4693.743604618</v>
+      </c>
+      <c r="C22" t="n">
+        <v>34.74120455</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4659.002400068</v>
+      </c>
+      <c r="E22" t="n">
+        <v>25.32429377533333</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1764.728998344</v>
+      </c>
+      <c r="G22" t="n">
+        <v>21.748509934</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1742.98048841</v>
+      </c>
+      <c r="I22" t="n">
+        <v>26.59494055133333</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4873.862068222</v>
+      </c>
+      <c r="C23" t="n">
+        <v>34.549828712</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4839.31223951</v>
+      </c>
+      <c r="E23" t="n">
+        <v>25.45483019533333</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1814.294152412</v>
+      </c>
+      <c r="G23" t="n">
+        <v>21.730126024</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1792.564026386</v>
+      </c>
+      <c r="I23" t="n">
+        <v>26.73886206266667</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4989.959616158</v>
+      </c>
+      <c r="C24" t="n">
+        <v>34.193174196</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4955.766441962</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.57009584133333</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1834.75095213</v>
+      </c>
+      <c r="G24" t="n">
+        <v>21.69227645</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1813.058675678</v>
+      </c>
+      <c r="I24" t="n">
+        <v>26.86194370533333</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4807.966401793999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>33.930818074</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4774.035583722</v>
+      </c>
+      <c r="E25" t="n">
+        <v>25.81990274533334</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1745.358372966</v>
+      </c>
+      <c r="G25" t="n">
+        <v>21.805460372</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1723.552912592</v>
+      </c>
+      <c r="I25" t="n">
+        <v>27.12114217266666</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4828.259401284</v>
+      </c>
+      <c r="C26" t="n">
+        <v>33.617331686</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4794.642069598</v>
+      </c>
+      <c r="E26" t="n">
+        <v>25.91115374533333</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1739.354431102</v>
+      </c>
+      <c r="G26" t="n">
+        <v>21.88837518</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1717.466055924</v>
+      </c>
+      <c r="I26" t="n">
+        <v>27.21708276466667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4866.381600115999</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33.774286282</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4832.607313834001</v>
+      </c>
+      <c r="E27" t="n">
+        <v>26.42515303066667</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1736.166937038</v>
+      </c>
+      <c r="G27" t="n">
+        <v>22.310224142</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1713.856712894</v>
+      </c>
+      <c r="I27" t="n">
+        <v>27.74777298466667</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4933.811597968</v>
+      </c>
+      <c r="C28" t="n">
+        <v>33.967502006</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4899.844095962</v>
+      </c>
+      <c r="E28" t="n">
+        <v>27.12920759</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1742.295888852</v>
+      </c>
+      <c r="G28" t="n">
+        <v>23.002376966</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1719.293511884</v>
+      </c>
+      <c r="I28" t="n">
+        <v>28.46061579466667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -1273,6 +1273,64 @@
         <v>28.46061579466667</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4808.447313954</v>
+      </c>
+      <c r="C29" t="n">
+        <v>34.602017566</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4773.845296388</v>
+      </c>
+      <c r="E29" t="n">
+        <v>28.35622475466667</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1687.40019971</v>
+      </c>
+      <c r="G29" t="n">
+        <v>24.411650662</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1662.98854905</v>
+      </c>
+      <c r="I29" t="n">
+        <v>29.71434492466667</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4855.412432398</v>
+      </c>
+      <c r="C30" t="n">
+        <v>35.855350794</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4819.557081604</v>
+      </c>
+      <c r="E30" t="n">
+        <v>91.05551909399999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1691.14584605</v>
+      </c>
+      <c r="G30" t="n">
+        <v>26.621560398</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1664.524285652</v>
+      </c>
+      <c r="I30" t="n">
+        <v>95.16820697600001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -722,615 +722,6 @@
         <v>14.95168422666666</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="B10" t="n">
-        <v>23.065251918</v>
-      </c>
-      <c r="C10" t="n">
-        <v>19.391128632</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.674123286</v>
-      </c>
-      <c r="E10" t="n">
-        <v>15.134183304</v>
-      </c>
-      <c r="F10" t="n">
-        <v>19.013517068</v>
-      </c>
-      <c r="G10" t="n">
-        <v>16.23480563</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.778711438</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16.287015978</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>53.477439452</v>
-      </c>
-      <c r="C11" t="n">
-        <v>27.743483948</v>
-      </c>
-      <c r="D11" t="n">
-        <v>25.733955504</v>
-      </c>
-      <c r="E11" t="n">
-        <v>19.02164175333333</v>
-      </c>
-      <c r="F11" t="n">
-        <v>33.43191751</v>
-      </c>
-      <c r="G11" t="n">
-        <v>20.299145172</v>
-      </c>
-      <c r="H11" t="n">
-        <v>13.132772338</v>
-      </c>
-      <c r="I11" t="n">
-        <v>20.22482003466667</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>762.840795484</v>
-      </c>
-      <c r="C12" t="n">
-        <v>35.700369212</v>
-      </c>
-      <c r="D12" t="n">
-        <v>727.1404262719999</v>
-      </c>
-      <c r="E12" t="n">
-        <v>22.97236418</v>
-      </c>
-      <c r="F12" t="n">
-        <v>357.411734862</v>
-      </c>
-      <c r="G12" t="n">
-        <v>23.752440764</v>
-      </c>
-      <c r="H12" t="n">
-        <v>333.659294098</v>
-      </c>
-      <c r="I12" t="n">
-        <v>24.18630784933334</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1953.745469976</v>
-      </c>
-      <c r="C13" t="n">
-        <v>38.77228725200001</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1914.973182722</v>
-      </c>
-      <c r="E13" t="n">
-        <v>24.811487422</v>
-      </c>
-      <c r="F13" t="n">
-        <v>872.5247670800001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>24.700685818</v>
-      </c>
-      <c r="H13" t="n">
-        <v>847.824081262</v>
-      </c>
-      <c r="I13" t="n">
-        <v>26.029398638</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2266.191827468</v>
-      </c>
-      <c r="C14" t="n">
-        <v>39.018818624</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2227.173008844</v>
-      </c>
-      <c r="E14" t="n">
-        <v>25.243859218</v>
-      </c>
-      <c r="F14" t="n">
-        <v>986.171924806</v>
-      </c>
-      <c r="G14" t="n">
-        <v>24.503048226</v>
-      </c>
-      <c r="H14" t="n">
-        <v>961.6688765800001</v>
-      </c>
-      <c r="I14" t="n">
-        <v>26.46850563866667</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3032.198468768</v>
-      </c>
-      <c r="C15" t="n">
-        <v>38.950103506</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2993.248365262</v>
-      </c>
-      <c r="E15" t="n">
-        <v>25.52585647666667</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1284.978745966</v>
-      </c>
-      <c r="G15" t="n">
-        <v>24.161410788</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1260.817335178</v>
-      </c>
-      <c r="I15" t="n">
-        <v>26.75116729333333</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3467.50966688</v>
-      </c>
-      <c r="C16" t="n">
-        <v>38.289160512</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3429.220506368</v>
-      </c>
-      <c r="E16" t="n">
-        <v>25.51369319333333</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1436.474800022</v>
-      </c>
-      <c r="G16" t="n">
-        <v>23.65727812</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1412.817521902</v>
-      </c>
-      <c r="I16" t="n">
-        <v>26.749201902</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3911.892387694</v>
-      </c>
-      <c r="C17" t="n">
-        <v>37.487058824</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3874.405328872</v>
-      </c>
-      <c r="E17" t="n">
-        <v>25.440260226</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1585.105019658</v>
-      </c>
-      <c r="G17" t="n">
-        <v>23.140807668</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1561.96421199</v>
-      </c>
-      <c r="I17" t="n">
-        <v>26.67706112333333</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4041.011614314</v>
-      </c>
-      <c r="C18" t="n">
-        <v>36.964767414</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4004.0468469</v>
-      </c>
-      <c r="E18" t="n">
-        <v>25.44409872933333</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1608.56998527</v>
-      </c>
-      <c r="G18" t="n">
-        <v>22.774044308</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1585.795940964</v>
-      </c>
-      <c r="I18" t="n">
-        <v>26.68560294533333</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4312.789545273999</v>
-      </c>
-      <c r="C19" t="n">
-        <v>36.30853267600001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4276.481012597999</v>
-      </c>
-      <c r="E19" t="n">
-        <v>25.30718837866667</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1696.902866872</v>
-      </c>
-      <c r="G19" t="n">
-        <v>22.475940104</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1674.426926766</v>
-      </c>
-      <c r="I19" t="n">
-        <v>26.55429984466667</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4427.371668214</v>
-      </c>
-      <c r="C20" t="n">
-        <v>35.672811882</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4391.698856334</v>
-      </c>
-      <c r="E20" t="n">
-        <v>25.31023158866667</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1708.110787172</v>
-      </c>
-      <c r="G20" t="n">
-        <v>22.116897024</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1685.993890148</v>
-      </c>
-      <c r="I20" t="n">
-        <v>26.56685283933334</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4719.73852585</v>
-      </c>
-      <c r="C21" t="n">
-        <v>35.270357802</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4684.468168048</v>
-      </c>
-      <c r="E21" t="n">
-        <v>25.32196972466667</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1798.145568474</v>
-      </c>
-      <c r="G21" t="n">
-        <v>21.926013394</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1776.21955508</v>
-      </c>
-      <c r="I21" t="n">
-        <v>26.58711745933334</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4693.743604618</v>
-      </c>
-      <c r="C22" t="n">
-        <v>34.74120455</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4659.002400068</v>
-      </c>
-      <c r="E22" t="n">
-        <v>25.32429377533333</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1764.728998344</v>
-      </c>
-      <c r="G22" t="n">
-        <v>21.748509934</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1742.98048841</v>
-      </c>
-      <c r="I22" t="n">
-        <v>26.59494055133333</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>4873.862068222</v>
-      </c>
-      <c r="C23" t="n">
-        <v>34.549828712</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4839.31223951</v>
-      </c>
-      <c r="E23" t="n">
-        <v>25.45483019533333</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1814.294152412</v>
-      </c>
-      <c r="G23" t="n">
-        <v>21.730126024</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1792.564026386</v>
-      </c>
-      <c r="I23" t="n">
-        <v>26.73886206266667</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4989.959616158</v>
-      </c>
-      <c r="C24" t="n">
-        <v>34.193174196</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4955.766441962</v>
-      </c>
-      <c r="E24" t="n">
-        <v>25.57009584133333</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1834.75095213</v>
-      </c>
-      <c r="G24" t="n">
-        <v>21.69227645</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1813.058675678</v>
-      </c>
-      <c r="I24" t="n">
-        <v>26.86194370533333</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4807.966401793999</v>
-      </c>
-      <c r="C25" t="n">
-        <v>33.930818074</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4774.035583722</v>
-      </c>
-      <c r="E25" t="n">
-        <v>25.81990274533334</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1745.358372966</v>
-      </c>
-      <c r="G25" t="n">
-        <v>21.805460372</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1723.552912592</v>
-      </c>
-      <c r="I25" t="n">
-        <v>27.12114217266666</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>4828.259401284</v>
-      </c>
-      <c r="C26" t="n">
-        <v>33.617331686</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4794.642069598</v>
-      </c>
-      <c r="E26" t="n">
-        <v>25.91115374533333</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1739.354431102</v>
-      </c>
-      <c r="G26" t="n">
-        <v>21.88837518</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1717.466055924</v>
-      </c>
-      <c r="I26" t="n">
-        <v>27.21708276466667</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="B27" t="n">
-        <v>4866.381600115999</v>
-      </c>
-      <c r="C27" t="n">
-        <v>33.774286282</v>
-      </c>
-      <c r="D27" t="n">
-        <v>4832.607313834001</v>
-      </c>
-      <c r="E27" t="n">
-        <v>26.42515303066667</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1736.166937038</v>
-      </c>
-      <c r="G27" t="n">
-        <v>22.310224142</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1713.856712894</v>
-      </c>
-      <c r="I27" t="n">
-        <v>27.74777298466667</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4933.811597968</v>
-      </c>
-      <c r="C28" t="n">
-        <v>33.967502006</v>
-      </c>
-      <c r="D28" t="n">
-        <v>4899.844095962</v>
-      </c>
-      <c r="E28" t="n">
-        <v>27.12920759</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1742.295888852</v>
-      </c>
-      <c r="G28" t="n">
-        <v>23.002376966</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1719.293511884</v>
-      </c>
-      <c r="I28" t="n">
-        <v>28.46061579466667</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="B29" t="n">
-        <v>4808.447313954</v>
-      </c>
-      <c r="C29" t="n">
-        <v>34.602017566</v>
-      </c>
-      <c r="D29" t="n">
-        <v>4773.845296388</v>
-      </c>
-      <c r="E29" t="n">
-        <v>28.35622475466667</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1687.40019971</v>
-      </c>
-      <c r="G29" t="n">
-        <v>24.411650662</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1662.98854905</v>
-      </c>
-      <c r="I29" t="n">
-        <v>29.71434492466667</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="B30" t="n">
-        <v>4855.412432398</v>
-      </c>
-      <c r="C30" t="n">
-        <v>35.855350794</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4819.557081604</v>
-      </c>
-      <c r="E30" t="n">
-        <v>91.05551909399999</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1691.14584605</v>
-      </c>
-      <c r="G30" t="n">
-        <v>26.621560398</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1664.524285652</v>
-      </c>
-      <c r="I30" t="n">
-        <v>95.16820697600001</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -722,6 +722,354 @@
         <v>14.95168422666666</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B10" t="n">
+        <v>23.065251918</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19.391128632</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.674123286</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15.134183304</v>
+      </c>
+      <c r="F10" t="n">
+        <v>19.013517068</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16.23480563</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.778711438</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16.287015978</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>53.477439452</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27.743483948</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25.733955504</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19.02164175333333</v>
+      </c>
+      <c r="F11" t="n">
+        <v>33.43191751</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20.299145172</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.132772338</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20.22482003466667</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>762.840795484</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35.700369212</v>
+      </c>
+      <c r="D12" t="n">
+        <v>727.1404262719999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>22.97236418</v>
+      </c>
+      <c r="F12" t="n">
+        <v>357.411734862</v>
+      </c>
+      <c r="G12" t="n">
+        <v>23.752440764</v>
+      </c>
+      <c r="H12" t="n">
+        <v>333.659294098</v>
+      </c>
+      <c r="I12" t="n">
+        <v>24.18630784933334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1953.745469976</v>
+      </c>
+      <c r="C13" t="n">
+        <v>38.77228725200001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1914.973182722</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24.811487422</v>
+      </c>
+      <c r="F13" t="n">
+        <v>872.5247670800001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>24.700685818</v>
+      </c>
+      <c r="H13" t="n">
+        <v>847.824081262</v>
+      </c>
+      <c r="I13" t="n">
+        <v>26.029398638</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2266.191827468</v>
+      </c>
+      <c r="C14" t="n">
+        <v>39.018818624</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2227.173008844</v>
+      </c>
+      <c r="E14" t="n">
+        <v>25.243859218</v>
+      </c>
+      <c r="F14" t="n">
+        <v>986.171924806</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24.503048226</v>
+      </c>
+      <c r="H14" t="n">
+        <v>961.6688765800001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>26.46850563866667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3032.198468768</v>
+      </c>
+      <c r="C15" t="n">
+        <v>38.950103506</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2993.248365262</v>
+      </c>
+      <c r="E15" t="n">
+        <v>25.52585647666667</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1284.978745966</v>
+      </c>
+      <c r="G15" t="n">
+        <v>24.161410788</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1260.817335178</v>
+      </c>
+      <c r="I15" t="n">
+        <v>26.75116729333333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3467.50966688</v>
+      </c>
+      <c r="C16" t="n">
+        <v>38.289160512</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3429.220506368</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25.51369319333333</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1436.474800022</v>
+      </c>
+      <c r="G16" t="n">
+        <v>23.65727812</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1412.817521902</v>
+      </c>
+      <c r="I16" t="n">
+        <v>26.749201902</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3911.892387694</v>
+      </c>
+      <c r="C17" t="n">
+        <v>37.487058824</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3874.405328872</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25.440260226</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1585.105019658</v>
+      </c>
+      <c r="G17" t="n">
+        <v>23.140807668</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1561.96421199</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26.67706112333333</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4041.011614314</v>
+      </c>
+      <c r="C18" t="n">
+        <v>36.964767414</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4004.0468469</v>
+      </c>
+      <c r="E18" t="n">
+        <v>25.44409872933333</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1608.56998527</v>
+      </c>
+      <c r="G18" t="n">
+        <v>22.774044308</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1585.795940964</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26.68560294533333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4312.789545273999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>36.30853267600001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4276.481012597999</v>
+      </c>
+      <c r="E19" t="n">
+        <v>25.30718837866667</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1696.902866872</v>
+      </c>
+      <c r="G19" t="n">
+        <v>22.475940104</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1674.426926766</v>
+      </c>
+      <c r="I19" t="n">
+        <v>26.55429984466667</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4427.371668214</v>
+      </c>
+      <c r="C20" t="n">
+        <v>35.672811882</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4391.698856334</v>
+      </c>
+      <c r="E20" t="n">
+        <v>25.31023158866667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1708.110787172</v>
+      </c>
+      <c r="G20" t="n">
+        <v>22.116897024</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1685.993890148</v>
+      </c>
+      <c r="I20" t="n">
+        <v>26.56685283933334</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4719.73852585</v>
+      </c>
+      <c r="C21" t="n">
+        <v>35.270357802</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4684.468168048</v>
+      </c>
+      <c r="E21" t="n">
+        <v>25.32196972466667</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1798.145568474</v>
+      </c>
+      <c r="G21" t="n">
+        <v>21.926013394</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1776.21955508</v>
+      </c>
+      <c r="I21" t="n">
+        <v>26.58711745933334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -1070,6 +1070,64 @@
         <v>26.58711745933334</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4693.743604618</v>
+      </c>
+      <c r="C22" t="n">
+        <v>34.74120455</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4659.002400068</v>
+      </c>
+      <c r="E22" t="n">
+        <v>25.32429377533333</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1764.728998344</v>
+      </c>
+      <c r="G22" t="n">
+        <v>21.748509934</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1742.98048841</v>
+      </c>
+      <c r="I22" t="n">
+        <v>26.59494055133333</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4873.862068222</v>
+      </c>
+      <c r="C23" t="n">
+        <v>34.549828712</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4839.31223951</v>
+      </c>
+      <c r="E23" t="n">
+        <v>25.45483019533333</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1814.294152412</v>
+      </c>
+      <c r="G23" t="n">
+        <v>21.730126024</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1792.564026386</v>
+      </c>
+      <c r="I23" t="n">
+        <v>26.73886206266667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -1012,6 +1012,64 @@
         <v>26.55429984466667</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4427.371668214</v>
+      </c>
+      <c r="C20" t="n">
+        <v>35.672811882</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4391.698856334</v>
+      </c>
+      <c r="E20" t="n">
+        <v>25.31023158866667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1708.110787172</v>
+      </c>
+      <c r="G20" t="n">
+        <v>22.116897024</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1685.993890148</v>
+      </c>
+      <c r="I20" t="n">
+        <v>26.56685283933334</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4719.73852585</v>
+      </c>
+      <c r="C21" t="n">
+        <v>35.270357802</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4684.468168048</v>
+      </c>
+      <c r="E21" t="n">
+        <v>25.32196972466667</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1798.145568474</v>
+      </c>
+      <c r="G21" t="n">
+        <v>21.926013394</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1776.21955508</v>
+      </c>
+      <c r="I21" t="n">
+        <v>26.58711745933334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -1,70 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\soliman\m5out_stats\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF546DF-E9CB-4FE4-A5EF-8BA6E21B440B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>injection_rate</t>
-  </si>
-  <si>
-    <t>average_flit_latency</t>
-  </si>
-  <si>
-    <t>average_flit_network_latency</t>
-  </si>
-  <si>
-    <t>flit_queuing_latency</t>
-  </si>
-  <si>
-    <t>average_flit_vnet_latency</t>
-  </si>
-  <si>
-    <t>average_packet_latency</t>
-  </si>
-  <si>
-    <t>average_packet_network_latency</t>
-  </si>
-  <si>
-    <t>average_packet_queueing_latency</t>
-  </si>
-  <si>
-    <t>average_packet_vnet_latency</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -83,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,51 +419,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col width="12.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="25.77734375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22.44140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="29" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="29.6640625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="25.77734375" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>injection_rate</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>average_flit_latency</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>average_flit_network_latency</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>flit_queuing_latency</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>average_flit_vnet_latency</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>average_packet_latency</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>average_packet_network_latency</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>average_packet_queueing_latency</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>average_packet_vnet_latency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10665.199052844</v>
+      </c>
+      <c r="C2" t="n">
+        <v>87.869524566</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10577.329528276</v>
+      </c>
+      <c r="E2" t="n">
+        <v>202.58873205</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8667.003450980001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59.541221288</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8607.462229692001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>226.730506936</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10665.199052844</v>
+      </c>
+      <c r="C3" t="n">
+        <v>87.869524566</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10577.329528276</v>
+      </c>
+      <c r="E3" t="n">
+        <v>202.58873205</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8667.003450980001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>59.541221288</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8607.462229692001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>226.730506936</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10665.199052844</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87.869524566</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10577.329528276</v>
+      </c>
+      <c r="E4" t="n">
+        <v>202.58873205</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8667.003450980001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>59.541221288</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8607.462229692001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>226.730506936</v>
+      </c>
+      <c r="J4" t="n">
+        <v>89358</v>
+      </c>
+      <c r="K4" t="n">
+        <v>89250</v>
       </c>
     </row>
   </sheetData>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -441,6 +441,7 @@
     <col width="29" bestFit="1" customWidth="1" min="7" max="7"/>
     <col width="29.6640625" bestFit="1" customWidth="1" min="8" max="8"/>
     <col width="25.77734375" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="13.6640625" bestFit="1" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -489,98 +490,1840 @@
           <t>average_packet_vnet_latency</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Pkt_inject</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pkt_recived</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Reception_rate</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="B2" t="n">
-        <v>10665.199052844</v>
+        <v>29.041165588</v>
       </c>
       <c r="C2" t="n">
-        <v>87.869524566</v>
+        <v>27.041165588</v>
       </c>
       <c r="D2" t="n">
-        <v>10577.329528276</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>202.58873205</v>
+        <v>22.476775084</v>
       </c>
       <c r="F2" t="n">
-        <v>8667.003450980001</v>
+        <v>31.256227758</v>
       </c>
       <c r="G2" t="n">
-        <v>59.541221288</v>
+        <v>29.256227758</v>
       </c>
       <c r="H2" t="n">
-        <v>8607.462229692001</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>226.730506936</v>
+        <v>86.666923598</v>
+      </c>
+      <c r="J2" t="n">
+        <v>284</v>
+      </c>
+      <c r="K2" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="B3" t="n">
-        <v>10665.199052844</v>
+        <v>28.791004266</v>
       </c>
       <c r="C3" t="n">
-        <v>87.869524566</v>
+        <v>26.791004266</v>
       </c>
       <c r="D3" t="n">
-        <v>10577.329528276</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>202.58873205</v>
+        <v>22.03322084266667</v>
       </c>
       <c r="F3" t="n">
-        <v>8667.003450980001</v>
+        <v>30.874446086</v>
       </c>
       <c r="G3" t="n">
-        <v>59.541221288</v>
+        <v>28.874446086</v>
       </c>
       <c r="H3" t="n">
-        <v>8607.462229692001</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>226.730506936</v>
+        <v>85.767374664</v>
+      </c>
+      <c r="J3" t="n">
+        <v>680</v>
+      </c>
+      <c r="K3" t="n">
+        <v>677</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29.176364942</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27.034123564</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.14224138</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22.504438636</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30.665</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="I4" t="n">
+        <v>87.213925754</v>
+      </c>
+      <c r="J4" t="n">
+        <v>801</v>
+      </c>
+      <c r="K4" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="B5" t="n">
+        <v>29.390566038</v>
+      </c>
+      <c r="C5" t="n">
+        <v>27.38773585</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.002830188</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22.47694128933334</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30.396774194</v>
+      </c>
+      <c r="G5" t="n">
+        <v>28.395698924</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.001075268</v>
+      </c>
+      <c r="I5" t="n">
+        <v>87.21066047400001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>931</v>
+      </c>
+      <c r="K5" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31.168300856</v>
+      </c>
+      <c r="C6" t="n">
+        <v>29.040958174</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.127342684</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23.11531868</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32.282075472</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30.228301886</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.053773584</v>
+      </c>
+      <c r="I6" t="n">
+        <v>89.51584040399999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1064</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>31.115521064</v>
+      </c>
+      <c r="C7" t="n">
+        <v>29.06518847</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.050332594</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23.19947494866667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32.373831776</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30.350892098</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.022939678</v>
+      </c>
+      <c r="I7" t="n">
+        <v>89.674689184</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1181</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B8" t="n">
+        <v>32.132698542</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30.050648298</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.082050244</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23.54102157866667</v>
+      </c>
+      <c r="F8" t="n">
+        <v>32.69095092</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30.656441718</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.034509202</v>
+      </c>
+      <c r="I8" t="n">
+        <v>90.88366551599999</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1307</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="B9" t="n">
+        <v>32.28477934</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30.160608472</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.124170868</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23.55541413466667</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33.093103448</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31.039310344</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.053793104</v>
+      </c>
+      <c r="I9" t="n">
+        <v>91.00105908799999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1454</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="B10" t="n">
+        <v>33.195463642</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30.97981988</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.215643762</v>
+      </c>
+      <c r="E10" t="n">
+        <v>23.89746423066666</v>
+      </c>
+      <c r="F10" t="n">
+        <v>33.1821046</v>
+      </c>
+      <c r="G10" t="n">
+        <v>31.088216762</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.093887838</v>
+      </c>
+      <c r="I10" t="n">
+        <v>92.241803992</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1590</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32.053417488</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29.9932266</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.060190886</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23.58650613266667</v>
+      </c>
+      <c r="F11" t="n">
+        <v>32.786627906</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30.759302326</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.027325582</v>
+      </c>
+      <c r="I11" t="n">
+        <v>91.25035700400001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1721</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="B12" t="n">
+        <v>32.652092352</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30.492207792</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.15988456</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23.77258354266667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>32.930383162</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30.859147328</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.071235834</v>
+      </c>
+      <c r="I12" t="n">
+        <v>91.901434706</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1857</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="B13" t="n">
+        <v>34.501771448</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32.304063912</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.197707538</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24.806277466</v>
+      </c>
+      <c r="F13" t="n">
+        <v>33.61387632</v>
+      </c>
+      <c r="G13" t="n">
+        <v>31.521870286</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.092006034</v>
+      </c>
+      <c r="I13" t="n">
+        <v>95.057738008</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1995</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="B14" t="n">
+        <v>35.127115384</v>
+      </c>
+      <c r="C14" t="n">
+        <v>32.712371794</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.41474359</v>
+      </c>
+      <c r="E14" t="n">
+        <v>24.68001612066667</v>
+      </c>
+      <c r="F14" t="n">
+        <v>33.67475501600001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>31.501633224</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.173121792</v>
+      </c>
+      <c r="I14" t="n">
+        <v>94.79617528199999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2150</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="B15" t="n">
+        <v>35.87855327</v>
+      </c>
+      <c r="C15" t="n">
+        <v>33.507048764</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.371504506</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24.92411785733333</v>
+      </c>
+      <c r="F15" t="n">
+        <v>34.53028972800001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>32.365671642</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.164618086</v>
+      </c>
+      <c r="I15" t="n">
+        <v>95.725083778</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2285</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="B16" t="n">
+        <v>36.06856986</v>
+      </c>
+      <c r="C16" t="n">
+        <v>33.51808948599999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.550480374</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25.04791655866667</v>
+      </c>
+      <c r="F16" t="n">
+        <v>34.594895018</v>
+      </c>
+      <c r="G16" t="n">
+        <v>32.366405928</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.22848909</v>
+      </c>
+      <c r="I16" t="n">
+        <v>96.25577574</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2434</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="B17" t="n">
+        <v>38.165098826</v>
+      </c>
+      <c r="C17" t="n">
+        <v>35.262657224</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.902441602</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25.82978690466667</v>
+      </c>
+      <c r="F17" t="n">
+        <v>35.373484552</v>
+      </c>
+      <c r="G17" t="n">
+        <v>32.99413375</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.379350802</v>
+      </c>
+      <c r="I17" t="n">
+        <v>98.625394134</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2561</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>0.02</v>
       </c>
-      <c r="B4" t="n">
-        <v>10665.199052844</v>
-      </c>
-      <c r="C4" t="n">
-        <v>87.869524566</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10577.329528276</v>
-      </c>
-      <c r="E4" t="n">
-        <v>202.58873205</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8667.003450980001</v>
-      </c>
-      <c r="G4" t="n">
-        <v>59.541221288</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8607.462229692001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>226.730506936</v>
-      </c>
-      <c r="J4" t="n">
-        <v>89358</v>
-      </c>
-      <c r="K4" t="n">
-        <v>89250</v>
+      <c r="B18" t="n">
+        <v>37.300452394</v>
+      </c>
+      <c r="C18" t="n">
+        <v>34.909521086</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.390931308</v>
+      </c>
+      <c r="E18" t="n">
+        <v>25.859477276</v>
+      </c>
+      <c r="F18" t="n">
+        <v>34.695053924</v>
+      </c>
+      <c r="G18" t="n">
+        <v>32.53477129</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.160282632</v>
+      </c>
+      <c r="I18" t="n">
+        <v>98.73392276200001</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2699</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="B19" t="n">
+        <v>41.70538865</v>
+      </c>
+      <c r="C19" t="n">
+        <v>37.902050548</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.803338102</v>
+      </c>
+      <c r="E19" t="n">
+        <v>26.912632222</v>
+      </c>
+      <c r="F19" t="n">
+        <v>36.885915492</v>
+      </c>
+      <c r="G19" t="n">
+        <v>34.143661972</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.742253522</v>
+      </c>
+      <c r="I19" t="n">
+        <v>102.12806567</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2851</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="B20" t="n">
+        <v>40.7374554</v>
+      </c>
+      <c r="C20" t="n">
+        <v>37.29163091</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.445824488</v>
+      </c>
+      <c r="E20" t="n">
+        <v>26.63915820733334</v>
+      </c>
+      <c r="F20" t="n">
+        <v>36.569318564</v>
+      </c>
+      <c r="G20" t="n">
+        <v>33.968445788</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.600872776</v>
+      </c>
+      <c r="I20" t="n">
+        <v>101.28714821</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2988</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="B21" t="n">
+        <v>50.976111596</v>
+      </c>
+      <c r="C21" t="n">
+        <v>44.311944202</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.664167394</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29.60784172733333</v>
+      </c>
+      <c r="F21" t="n">
+        <v>40.939403758</v>
+      </c>
+      <c r="G21" t="n">
+        <v>37.002268308</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.93713545</v>
+      </c>
+      <c r="I21" t="n">
+        <v>110.371097236</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3102</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="B22" t="n">
+        <v>53.151096536</v>
+      </c>
+      <c r="C22" t="n">
+        <v>46.216478786</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6.93461775</v>
+      </c>
+      <c r="E22" t="n">
+        <v>30.15564991466667</v>
+      </c>
+      <c r="F22" t="n">
+        <v>42.04171817</v>
+      </c>
+      <c r="G22" t="n">
+        <v>37.96817058</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.07354759</v>
+      </c>
+      <c r="I22" t="n">
+        <v>112.251801978</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3245</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="B23" t="n">
+        <v>52.483073532</v>
+      </c>
+      <c r="C23" t="n">
+        <v>45.987088648</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6.495984884</v>
+      </c>
+      <c r="E23" t="n">
+        <v>30.08892495466667</v>
+      </c>
+      <c r="F23" t="n">
+        <v>41.87317654</v>
+      </c>
+      <c r="G23" t="n">
+        <v>37.971420066</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.901756476</v>
+      </c>
+      <c r="I23" t="n">
+        <v>112.017069876</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3369</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="B24" t="n">
+        <v>60.056901056</v>
+      </c>
+      <c r="C24" t="n">
+        <v>50.55965056</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9.497250498</v>
+      </c>
+      <c r="E24" t="n">
+        <v>32.10838220333333</v>
+      </c>
+      <c r="F24" t="n">
+        <v>44.370751214</v>
+      </c>
+      <c r="G24" t="n">
+        <v>39.313339046</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5.057412168</v>
+      </c>
+      <c r="I24" t="n">
+        <v>118.156519964</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3513</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="B25" t="n">
+        <v>60.140354826</v>
+      </c>
+      <c r="C25" t="n">
+        <v>50.124826526</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10.0155283</v>
+      </c>
+      <c r="E25" t="n">
+        <v>31.95781188066666</v>
+      </c>
+      <c r="F25" t="n">
+        <v>44.58989229399999</v>
+      </c>
+      <c r="G25" t="n">
+        <v>39.30157415</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.288318144</v>
+      </c>
+      <c r="I25" t="n">
+        <v>117.698977906</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3634</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="B26" t="n">
+        <v>69.098228722</v>
+      </c>
+      <c r="C26" t="n">
+        <v>55.330974024</v>
+      </c>
+      <c r="D26" t="n">
+        <v>13.767254698</v>
+      </c>
+      <c r="E26" t="n">
+        <v>34.07973725733333</v>
+      </c>
+      <c r="F26" t="n">
+        <v>48.4318363</v>
+      </c>
+      <c r="G26" t="n">
+        <v>41.57852777</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6.853308530000001</v>
+      </c>
+      <c r="I26" t="n">
+        <v>124.20642164</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3777</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="B27" t="n">
+        <v>125.477575178</v>
+      </c>
+      <c r="C27" t="n">
+        <v>71.66491053999999</v>
+      </c>
+      <c r="D27" t="n">
+        <v>53.812664636</v>
+      </c>
+      <c r="E27" t="n">
+        <v>40.60051362733333</v>
+      </c>
+      <c r="F27" t="n">
+        <v>72.57592163</v>
+      </c>
+      <c r="G27" t="n">
+        <v>48.88167053399999</v>
+      </c>
+      <c r="H27" t="n">
+        <v>23.694251096</v>
+      </c>
+      <c r="I27" t="n">
+        <v>143.87985921</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3894</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B28" t="n">
+        <v>87.49976052</v>
+      </c>
+      <c r="C28" t="n">
+        <v>63.004105372</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24.495655148</v>
+      </c>
+      <c r="E28" t="n">
+        <v>37.23139451866667</v>
+      </c>
+      <c r="F28" t="n">
+        <v>55.532350736</v>
+      </c>
+      <c r="G28" t="n">
+        <v>44.394703972</v>
+      </c>
+      <c r="H28" t="n">
+        <v>11.137646764</v>
+      </c>
+      <c r="I28" t="n">
+        <v>133.643488486</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4024</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="B29" t="n">
+        <v>230.451606596</v>
+      </c>
+      <c r="C29" t="n">
+        <v>83.315518478</v>
+      </c>
+      <c r="D29" t="n">
+        <v>147.136088118</v>
+      </c>
+      <c r="E29" t="n">
+        <v>45.63160024666666</v>
+      </c>
+      <c r="F29" t="n">
+        <v>113.515238096</v>
+      </c>
+      <c r="G29" t="n">
+        <v>52.795238096</v>
+      </c>
+      <c r="H29" t="n">
+        <v>60.72</v>
+      </c>
+      <c r="I29" t="n">
+        <v>159.101577632</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4230</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="B30" t="n">
+        <v>279.587949936</v>
+      </c>
+      <c r="C30" t="n">
+        <v>83.870638078</v>
+      </c>
+      <c r="D30" t="n">
+        <v>195.71731186</v>
+      </c>
+      <c r="E30" t="n">
+        <v>46.00814317933333</v>
+      </c>
+      <c r="F30" t="n">
+        <v>132.178363254</v>
+      </c>
+      <c r="G30" t="n">
+        <v>52.644206108</v>
+      </c>
+      <c r="H30" t="n">
+        <v>79.534157146</v>
+      </c>
+      <c r="I30" t="n">
+        <v>160.161022226</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4312</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="B31" t="n">
+        <v>312.2268456800001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>90.763917984</v>
+      </c>
+      <c r="D31" t="n">
+        <v>221.462927696</v>
+      </c>
+      <c r="E31" t="n">
+        <v>48.99391926333334</v>
+      </c>
+      <c r="F31" t="n">
+        <v>142.174556876</v>
+      </c>
+      <c r="G31" t="n">
+        <v>54.61319273</v>
+      </c>
+      <c r="H31" t="n">
+        <v>87.561364146</v>
+      </c>
+      <c r="I31" t="n">
+        <v>169.068591708</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4482</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="B32" t="n">
+        <v>322.491380392</v>
+      </c>
+      <c r="C32" t="n">
+        <v>89.03272317</v>
+      </c>
+      <c r="D32" t="n">
+        <v>233.458657222</v>
+      </c>
+      <c r="E32" t="n">
+        <v>48.608685874</v>
+      </c>
+      <c r="F32" t="n">
+        <v>145.266608392</v>
+      </c>
+      <c r="G32" t="n">
+        <v>53.713505244</v>
+      </c>
+      <c r="H32" t="n">
+        <v>91.553103146</v>
+      </c>
+      <c r="I32" t="n">
+        <v>168.004587124</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4606</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="B33" t="n">
+        <v>282.35052918</v>
+      </c>
+      <c r="C33" t="n">
+        <v>88.570517084</v>
+      </c>
+      <c r="D33" t="n">
+        <v>193.780012096</v>
+      </c>
+      <c r="E33" t="n">
+        <v>48.29653983</v>
+      </c>
+      <c r="F33" t="n">
+        <v>129.561073542</v>
+      </c>
+      <c r="G33" t="n">
+        <v>53.473372782</v>
+      </c>
+      <c r="H33" t="n">
+        <v>76.08770076</v>
+      </c>
+      <c r="I33" t="n">
+        <v>167.02079449</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4763</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="B34" t="n">
+        <v>617.2194741540001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>97.840781768</v>
+      </c>
+      <c r="D34" t="n">
+        <v>519.378692386</v>
+      </c>
+      <c r="E34" t="n">
+        <v>52.57578640800001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>250.8867884</v>
+      </c>
+      <c r="G34" t="n">
+        <v>55.685929108</v>
+      </c>
+      <c r="H34" t="n">
+        <v>195.200859292</v>
+      </c>
+      <c r="I34" t="n">
+        <v>179.551333576</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4684</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="B35" t="n">
+        <v>463.208904852</v>
+      </c>
+      <c r="C35" t="n">
+        <v>93.51531102</v>
+      </c>
+      <c r="D35" t="n">
+        <v>369.693593832</v>
+      </c>
+      <c r="E35" t="n">
+        <v>50.89217982266666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>191.846297062</v>
+      </c>
+      <c r="G35" t="n">
+        <v>53.830575094</v>
+      </c>
+      <c r="H35" t="n">
+        <v>138.01572197</v>
+      </c>
+      <c r="I35" t="n">
+        <v>174.77358065</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4862</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="B36" t="n">
+        <v>463.92562936</v>
+      </c>
+      <c r="C36" t="n">
+        <v>90.96081286</v>
+      </c>
+      <c r="D36" t="n">
+        <v>372.9648165</v>
+      </c>
+      <c r="E36" t="n">
+        <v>50.02466226933333</v>
+      </c>
+      <c r="F36" t="n">
+        <v>192.022612558</v>
+      </c>
+      <c r="G36" t="n">
+        <v>53.01958409</v>
+      </c>
+      <c r="H36" t="n">
+        <v>139.003028468</v>
+      </c>
+      <c r="I36" t="n">
+        <v>172.35481325</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4978</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4953</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="B37" t="n">
+        <v>596.858383832</v>
+      </c>
+      <c r="C37" t="n">
+        <v>96.169408042</v>
+      </c>
+      <c r="D37" t="n">
+        <v>500.68897579</v>
+      </c>
+      <c r="E37" t="n">
+        <v>52.33681991133333</v>
+      </c>
+      <c r="F37" t="n">
+        <v>237.10825652</v>
+      </c>
+      <c r="G37" t="n">
+        <v>54.365561874</v>
+      </c>
+      <c r="H37" t="n">
+        <v>182.742694646</v>
+      </c>
+      <c r="I37" t="n">
+        <v>179.094025382</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5130</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="B38" t="n">
+        <v>698.072772292</v>
+      </c>
+      <c r="C38" t="n">
+        <v>98.87003653799999</v>
+      </c>
+      <c r="D38" t="n">
+        <v>599.202735756</v>
+      </c>
+      <c r="E38" t="n">
+        <v>162.048382534</v>
+      </c>
+      <c r="F38" t="n">
+        <v>268.109024012</v>
+      </c>
+      <c r="G38" t="n">
+        <v>54.72347017800001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>213.385553834</v>
+      </c>
+      <c r="I38" t="n">
+        <v>184.14808262</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5188</v>
+      </c>
+      <c r="K38" t="n">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="B39" t="n">
+        <v>769.2410549360001</v>
+      </c>
+      <c r="C39" t="n">
+        <v>97.06707022399999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>672.17398471</v>
+      </c>
+      <c r="E39" t="n">
+        <v>161.207834836</v>
+      </c>
+      <c r="F39" t="n">
+        <v>287.350436486</v>
+      </c>
+      <c r="G39" t="n">
+        <v>53.49759487</v>
+      </c>
+      <c r="H39" t="n">
+        <v>233.852841618</v>
+      </c>
+      <c r="I39" t="n">
+        <v>183.408850478</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5647</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="B40" t="n">
+        <v>872.985033</v>
+      </c>
+      <c r="C40" t="n">
+        <v>96.423494326</v>
+      </c>
+      <c r="D40" t="n">
+        <v>776.561538674</v>
+      </c>
+      <c r="E40" t="n">
+        <v>159.885856676</v>
+      </c>
+      <c r="F40" t="n">
+        <v>324.262701578</v>
+      </c>
+      <c r="G40" t="n">
+        <v>53.237558522</v>
+      </c>
+      <c r="H40" t="n">
+        <v>271.025143056</v>
+      </c>
+      <c r="I40" t="n">
+        <v>182.145839242</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5795</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5767</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="B41" t="n">
+        <v>847.293615606</v>
+      </c>
+      <c r="C41" t="n">
+        <v>95.458462646</v>
+      </c>
+      <c r="D41" t="n">
+        <v>751.83515296</v>
+      </c>
+      <c r="E41" t="n">
+        <v>159.362939298</v>
+      </c>
+      <c r="F41" t="n">
+        <v>313.430591482</v>
+      </c>
+      <c r="G41" t="n">
+        <v>52.703224694</v>
+      </c>
+      <c r="H41" t="n">
+        <v>260.727366788</v>
+      </c>
+      <c r="I41" t="n">
+        <v>181.41729691</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5829</v>
+      </c>
+      <c r="K41" t="n">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B42" t="n">
+        <v>880.347119272</v>
+      </c>
+      <c r="C42" t="n">
+        <v>97.25780548</v>
+      </c>
+      <c r="D42" t="n">
+        <v>783.089313792</v>
+      </c>
+      <c r="E42" t="n">
+        <v>162.881022376</v>
+      </c>
+      <c r="F42" t="n">
+        <v>315.02546257</v>
+      </c>
+      <c r="G42" t="n">
+        <v>52.301307078</v>
+      </c>
+      <c r="H42" t="n">
+        <v>262.724155492</v>
+      </c>
+      <c r="I42" t="n">
+        <v>185.035939954</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5929</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5891</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B43" t="n">
+        <v>952.269182746</v>
+      </c>
+      <c r="C43" t="n">
+        <v>98.44239500600001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>853.826787742</v>
+      </c>
+      <c r="E43" t="n">
+        <v>164.871443814</v>
+      </c>
+      <c r="F43" t="n">
+        <v>336.665193746</v>
+      </c>
+      <c r="G43" t="n">
+        <v>52.398878314</v>
+      </c>
+      <c r="H43" t="n">
+        <v>284.266315432</v>
+      </c>
+      <c r="I43" t="n">
+        <v>187.069155912</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5920</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5884</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="B44" t="n">
+        <v>973.44385012</v>
+      </c>
+      <c r="C44" t="n">
+        <v>95.74670836</v>
+      </c>
+      <c r="D44" t="n">
+        <v>877.69714176</v>
+      </c>
+      <c r="E44" t="n">
+        <v>162.450764364</v>
+      </c>
+      <c r="F44" t="n">
+        <v>340.210243902</v>
+      </c>
+      <c r="G44" t="n">
+        <v>51.44894309</v>
+      </c>
+      <c r="H44" t="n">
+        <v>288.761300814</v>
+      </c>
+      <c r="I44" t="n">
+        <v>184.748313896</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6188</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="B45" t="n">
+        <v>802.033256226</v>
+      </c>
+      <c r="C45" t="n">
+        <v>93.701945842</v>
+      </c>
+      <c r="D45" t="n">
+        <v>708.3313103820001</v>
+      </c>
+      <c r="E45" t="n">
+        <v>159.649805366</v>
+      </c>
+      <c r="F45" t="n">
+        <v>284.601675798</v>
+      </c>
+      <c r="G45" t="n">
+        <v>50.696583952</v>
+      </c>
+      <c r="H45" t="n">
+        <v>233.905091846</v>
+      </c>
+      <c r="I45" t="n">
+        <v>181.69820439</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6241</v>
+      </c>
+      <c r="K45" t="n">
+        <v>6206</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1099.76447845</v>
+      </c>
+      <c r="C46" t="n">
+        <v>97.414844664</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1002.349633784</v>
+      </c>
+      <c r="E46" t="n">
+        <v>164.87099821</v>
+      </c>
+      <c r="F46" t="n">
+        <v>380.256578948</v>
+      </c>
+      <c r="G46" t="n">
+        <v>51.773106546</v>
+      </c>
+      <c r="H46" t="n">
+        <v>328.4834724</v>
+      </c>
+      <c r="I46" t="n">
+        <v>187.074494872</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6265</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6232</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="B47" t="n">
+        <v>909.0422151480001</v>
+      </c>
+      <c r="C47" t="n">
+        <v>94.173014674</v>
+      </c>
+      <c r="D47" t="n">
+        <v>814.869200474</v>
+      </c>
+      <c r="E47" t="n">
+        <v>161.488857362</v>
+      </c>
+      <c r="F47" t="n">
+        <v>313.571316368</v>
+      </c>
+      <c r="G47" t="n">
+        <v>50.538171536</v>
+      </c>
+      <c r="H47" t="n">
+        <v>263.033144832</v>
+      </c>
+      <c r="I47" t="n">
+        <v>183.742126124</v>
+      </c>
+      <c r="J47" t="n">
+        <v>6396</v>
+      </c>
+      <c r="K47" t="n">
+        <v>6366</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1084.894507296</v>
+      </c>
+      <c r="C48" t="n">
+        <v>94.51985092</v>
+      </c>
+      <c r="D48" t="n">
+        <v>990.3746563760001</v>
+      </c>
+      <c r="E48" t="n">
+        <v>161.64182295</v>
+      </c>
+      <c r="F48" t="n">
+        <v>372.435580928</v>
+      </c>
+      <c r="G48" t="n">
+        <v>50.659929024</v>
+      </c>
+      <c r="H48" t="n">
+        <v>321.775651906</v>
+      </c>
+      <c r="I48" t="n">
+        <v>183.914534954</v>
+      </c>
+      <c r="J48" t="n">
+        <v>6517</v>
+      </c>
+      <c r="K48" t="n">
+        <v>6481</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1073.863530778</v>
+      </c>
+      <c r="C49" t="n">
+        <v>95.96935381600001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>977.894176962</v>
+      </c>
+      <c r="E49" t="n">
+        <v>163.086129174</v>
+      </c>
+      <c r="F49" t="n">
+        <v>369.809789344</v>
+      </c>
+      <c r="G49" t="n">
+        <v>51.115086742</v>
+      </c>
+      <c r="H49" t="n">
+        <v>318.6947026019999</v>
+      </c>
+      <c r="I49" t="n">
+        <v>185.247393582</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6493</v>
+      </c>
+      <c r="K49" t="n">
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1000.562673494</v>
+      </c>
+      <c r="C50" t="n">
+        <v>96.85856353600001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>903.704109958</v>
+      </c>
+      <c r="E50" t="n">
+        <v>167.238631556</v>
+      </c>
+      <c r="F50" t="n">
+        <v>332.655852032</v>
+      </c>
+      <c r="G50" t="n">
+        <v>50.44526986</v>
+      </c>
+      <c r="H50" t="n">
+        <v>282.210582172</v>
+      </c>
+      <c r="I50" t="n">
+        <v>189.465611146</v>
+      </c>
+      <c r="J50" t="n">
+        <v>6630</v>
+      </c>
+      <c r="K50" t="n">
+        <v>6596</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1113.630378338</v>
+      </c>
+      <c r="C51" t="n">
+        <v>95.43890419600001</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1018.191474142</v>
+      </c>
+      <c r="E51" t="n">
+        <v>164.089980774</v>
+      </c>
+      <c r="F51" t="n">
+        <v>376.026751786</v>
+      </c>
+      <c r="G51" t="n">
+        <v>50.539291686</v>
+      </c>
+      <c r="H51" t="n">
+        <v>325.4874601</v>
+      </c>
+      <c r="I51" t="n">
+        <v>186.355342972</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6620</v>
+      </c>
+      <c r="K51" t="n">
+        <v>6579</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1052.34553482</v>
+      </c>
+      <c r="C52" t="n">
+        <v>93.09443745599999</v>
+      </c>
+      <c r="D52" t="n">
+        <v>959.2510973640001</v>
+      </c>
+      <c r="E52" t="n">
+        <v>160.991547668</v>
+      </c>
+      <c r="F52" t="n">
+        <v>355.4457512499999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>49.790208762</v>
+      </c>
+      <c r="H52" t="n">
+        <v>305.655542488</v>
+      </c>
+      <c r="I52" t="n">
+        <v>183.314786584</v>
+      </c>
+      <c r="J52" t="n">
+        <v>6833</v>
+      </c>
+      <c r="K52" t="n">
+        <v>6802</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1137.487484404</v>
+      </c>
+      <c r="C53" t="n">
+        <v>93.93229100399999</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1043.5551934</v>
+      </c>
+      <c r="E53" t="n">
+        <v>163.643366822</v>
+      </c>
+      <c r="F53" t="n">
+        <v>375.484982838</v>
+      </c>
+      <c r="G53" t="n">
+        <v>49.686355836</v>
+      </c>
+      <c r="H53" t="n">
+        <v>325.798627002</v>
+      </c>
+      <c r="I53" t="n">
+        <v>185.954334256</v>
+      </c>
+      <c r="J53" t="n">
+        <v>7031</v>
+      </c>
+      <c r="K53" t="n">
+        <v>6992</v>
       </c>
     </row>
   </sheetData>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\soliman\m5out_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B2B067-38F5-401C-A9FA-20298D729EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF54E00D-38A6-47BE-A0D5-833AE7ED3809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>injection_rate</t>
   </si>
@@ -48,31 +49,12 @@
   <si>
     <t>average_packet_vnet_latency</t>
   </si>
-  <si>
-    <t>Pkt_inject</t>
-  </si>
-  <si>
-    <t>Pkt_recived</t>
-  </si>
-  <si>
-    <t>Reception_rate</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,17 +80,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,10 +419,9 @@
     <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,1023 +449,697 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.01</v>
       </c>
       <c r="B2">
-        <v>32.132698542</v>
+        <v>7407.9168550000004</v>
       </c>
       <c r="C2">
-        <v>30.050648297999999</v>
+        <v>6407.593586</v>
       </c>
       <c r="D2">
-        <v>2.0820502439999999</v>
+        <v>1000.323269</v>
       </c>
       <c r="E2">
-        <v>23.541021578666669</v>
+        <v>5957.3209336666669</v>
       </c>
       <c r="F2">
-        <v>32.690950919999999</v>
+        <v>7422.9038549999996</v>
       </c>
       <c r="G2">
-        <v>30.656441718</v>
+        <v>6422.7538619999996</v>
       </c>
       <c r="H2">
-        <v>2.0345092020000002</v>
+        <v>1000.149993</v>
       </c>
       <c r="I2">
-        <v>90.883665515999994</v>
-      </c>
-      <c r="J2">
-        <v>1307</v>
-      </c>
-      <c r="K2">
-        <v>1304</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6431.5103276666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="B3">
-        <v>37.300452393999997</v>
+        <v>7634.5126229999996</v>
       </c>
       <c r="C3">
-        <v>34.909521085999998</v>
+        <v>6629.0463650000002</v>
       </c>
       <c r="D3">
-        <v>2.3909313079999999</v>
+        <v>1005.466259</v>
       </c>
       <c r="E3">
-        <v>25.859477276</v>
+        <v>6069.6826626666661</v>
       </c>
       <c r="F3">
-        <v>34.695053924</v>
+        <v>7558.3608350000004</v>
       </c>
       <c r="G3">
-        <v>32.534771290000002</v>
+        <v>6555.7182199999997</v>
       </c>
       <c r="H3">
-        <v>2.1602826319999999</v>
+        <v>1002.642614</v>
       </c>
       <c r="I3">
-        <v>98.733922762000006</v>
-      </c>
-      <c r="J3">
-        <v>2699</v>
-      </c>
-      <c r="K3">
-        <v>2689</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6560.8055800000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="B4">
-        <v>87.499760519999995</v>
+        <v>8025.9561290000001</v>
       </c>
       <c r="C4">
-        <v>63.004105371999998</v>
+        <v>7009.1954889999997</v>
       </c>
       <c r="D4">
-        <v>24.495655148000001</v>
+        <v>1016.76064</v>
       </c>
       <c r="E4">
-        <v>37.231394518666669</v>
+        <v>6258.0764376666666</v>
       </c>
       <c r="F4">
-        <v>55.532350735999998</v>
+        <v>7790.1063780000004</v>
       </c>
       <c r="G4">
-        <v>44.394703972000002</v>
+        <v>6781.8579950000003</v>
       </c>
       <c r="H4">
-        <v>11.137646763999999</v>
+        <v>1008.248384</v>
       </c>
       <c r="I4">
-        <v>133.643488486</v>
-      </c>
-      <c r="J4">
-        <v>4024</v>
-      </c>
-      <c r="K4">
-        <v>4003</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6770.934823333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B5">
-        <v>952.26918274599996</v>
+        <v>23929.479094999999</v>
       </c>
       <c r="C5">
-        <v>98.442395006000012</v>
+        <v>13642.136229</v>
       </c>
       <c r="D5">
-        <v>853.82678774199996</v>
+        <v>10287.342866000001</v>
       </c>
       <c r="E5">
-        <v>164.871443814</v>
+        <v>9412.0263856666661</v>
       </c>
       <c r="F5">
-        <v>336.665193746</v>
+        <v>15379.197848</v>
       </c>
       <c r="G5">
-        <v>52.398878314000001</v>
+        <v>10032.456915999999</v>
       </c>
       <c r="H5">
-        <v>284.266315432</v>
+        <v>5346.7409319999997</v>
       </c>
       <c r="I5">
-        <v>187.06915591200001</v>
-      </c>
-      <c r="J5">
-        <v>5920</v>
-      </c>
-      <c r="K5">
-        <v>5884</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10013.550266666671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="B6">
-        <v>1137.487484404</v>
+        <v>3442910.3155339998</v>
       </c>
       <c r="C6">
-        <v>93.932291003999993</v>
+        <v>19195.310443999999</v>
       </c>
       <c r="D6">
-        <v>1043.5551934</v>
+        <v>3423715.0050900001</v>
       </c>
       <c r="E6">
-        <v>163.64336682199999</v>
+        <v>12810.297431000001</v>
       </c>
       <c r="F6">
-        <v>375.48498283800001</v>
+        <v>1417101.4935300001</v>
       </c>
       <c r="G6">
-        <v>49.686355835999997</v>
+        <v>11832.189147999999</v>
       </c>
       <c r="H6">
-        <v>325.79862700199999</v>
+        <v>1405269.3043819999</v>
       </c>
       <c r="I6">
-        <v>185.95433425600001</v>
-      </c>
-      <c r="J6">
-        <v>7031</v>
-      </c>
-      <c r="K6">
-        <v>6992</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>13426.86649266667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.2</v>
       </c>
       <c r="B7">
-        <v>1062.587179244</v>
+        <v>4685684.2611809997</v>
       </c>
       <c r="C7">
-        <v>88.745221267999995</v>
+        <v>17654.693375999999</v>
       </c>
       <c r="D7">
-        <v>973.841957976</v>
+        <v>4668029.5678040003</v>
       </c>
       <c r="E7">
-        <v>160.33021780799999</v>
+        <v>12675.656816999999</v>
       </c>
       <c r="F7">
-        <v>337.12880324600002</v>
+        <v>1778880.6245309999</v>
       </c>
       <c r="G7">
-        <v>47.367393509999999</v>
+        <v>10961.879976</v>
       </c>
       <c r="H7">
-        <v>289.76140973600002</v>
+        <v>1767918.744556</v>
       </c>
       <c r="I7">
-        <v>182.91782534999999</v>
-      </c>
-      <c r="J7">
-        <v>7929</v>
-      </c>
-      <c r="K7">
-        <v>7888</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>13308.08184866667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="B8">
-        <v>1150.231509172</v>
+        <v>4856494.6621000003</v>
       </c>
       <c r="C8">
-        <v>86.472905413999996</v>
+        <v>16893.30098</v>
       </c>
       <c r="D8">
-        <v>1063.7586037579999</v>
+        <v>4839601.3611199996</v>
       </c>
       <c r="E8">
-        <v>161.675982232</v>
+        <v>13018.059717</v>
       </c>
       <c r="F8">
-        <v>346.85743403999999</v>
+        <v>1741003.2585159999</v>
       </c>
       <c r="G8">
-        <v>46.220246858000003</v>
+        <v>10965.603360999999</v>
       </c>
       <c r="H8">
-        <v>300.63718718199999</v>
+        <v>1730037.655155</v>
       </c>
       <c r="I8">
-        <v>184.32898054399999</v>
-      </c>
-      <c r="J8">
-        <v>8872</v>
-      </c>
-      <c r="K8">
-        <v>8831</v>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>13673.026458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="B9">
-        <v>1219.984083504</v>
+        <v>4900242.6754750004</v>
       </c>
       <c r="C9">
-        <v>83.703480048000003</v>
+        <v>19116.929187999998</v>
       </c>
       <c r="D9">
-        <v>1136.2806034580001</v>
+        <v>4881125.7462870004</v>
       </c>
       <c r="E9">
-        <v>163.011501412</v>
+        <v>50634.000096000003</v>
       </c>
       <c r="F9">
-        <v>356.44720244199999</v>
+        <v>1830646.530086</v>
       </c>
       <c r="G9">
-        <v>46.321159715999997</v>
+        <v>15402.604321999999</v>
       </c>
       <c r="H9">
-        <v>310.12604272599998</v>
+        <v>1815243.925763</v>
       </c>
       <c r="I9">
-        <v>185.65836445799999</v>
-      </c>
-      <c r="J9">
-        <v>9870</v>
-      </c>
-      <c r="K9">
-        <v>9830</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>52727.730662000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.11</v>
+        <v>0.35</v>
       </c>
       <c r="B10">
-        <v>1040.8723941640001</v>
+        <v>6040947.6393889999</v>
       </c>
       <c r="C10">
-        <v>85.958495118000002</v>
+        <v>20844.597659999999</v>
       </c>
       <c r="D10">
-        <v>954.91389904599998</v>
+        <v>6020103.0417290004</v>
       </c>
       <c r="E10">
-        <v>185.19319164999999</v>
+        <v>57511.671826000013</v>
       </c>
       <c r="F10">
-        <v>306.097213888</v>
+        <v>3962178.6089619999</v>
       </c>
       <c r="G10">
-        <v>52.530647236</v>
+        <v>18328.917656000001</v>
       </c>
       <c r="H10">
-        <v>253.56656665200001</v>
+        <v>3943849.6913060001</v>
       </c>
       <c r="I10">
-        <v>207.80625287399999</v>
-      </c>
-      <c r="J10">
-        <v>11727</v>
-      </c>
-      <c r="K10">
-        <v>11665</v>
-      </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>59667.902677000013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="B11">
-        <v>1244.7461353799999</v>
+        <v>6663557.9872089997</v>
       </c>
       <c r="C11">
-        <v>87.929472955999998</v>
+        <v>20739.545889000001</v>
       </c>
       <c r="D11">
-        <v>1156.816662424</v>
+        <v>6642818.441319</v>
       </c>
       <c r="E11">
-        <v>201.94512861999999</v>
+        <v>57228.807062</v>
       </c>
       <c r="F11">
-        <v>512.11195209200002</v>
+        <v>5350090.8016590001</v>
       </c>
       <c r="G11">
-        <v>60.549446893999999</v>
+        <v>18311.666334000001</v>
       </c>
       <c r="H11">
-        <v>451.562505198</v>
+        <v>5331779.1353240004</v>
       </c>
       <c r="I11">
-        <v>224.77387994399999</v>
-      </c>
-      <c r="J11">
-        <v>12098</v>
-      </c>
-      <c r="K11">
-        <v>12023</v>
-      </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>59397.288445999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.13</v>
+        <v>0.45</v>
       </c>
       <c r="B12">
-        <v>1274.7678252420001</v>
+        <v>6852884.9346909998</v>
       </c>
       <c r="C12">
-        <v>91.194976564000001</v>
+        <v>20676.062167</v>
       </c>
       <c r="D12">
-        <v>1183.5728486779999</v>
+        <v>6832208.8725239998</v>
       </c>
       <c r="E12">
-        <v>212.26013829999999</v>
+        <v>56879.933726000003</v>
       </c>
       <c r="F12">
-        <v>726.470944508</v>
+        <v>6282097.6065659998</v>
       </c>
       <c r="G12">
-        <v>64.668849238000007</v>
+        <v>18189.494407999999</v>
       </c>
       <c r="H12">
-        <v>661.80209527</v>
+        <v>6263908.1121570002</v>
       </c>
       <c r="I12">
-        <v>235.68402278600001</v>
-      </c>
-      <c r="J12">
-        <v>12291</v>
-      </c>
-      <c r="K12">
-        <v>12218</v>
-      </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>59065.481447999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.14000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="B13">
-        <v>1265.4868811880001</v>
+        <v>6930376.8450180003</v>
       </c>
       <c r="C13">
-        <v>91.645951201999992</v>
+        <v>20682.951008</v>
       </c>
       <c r="D13">
-        <v>1173.840929986</v>
+        <v>6909693.8940089997</v>
       </c>
       <c r="E13">
-        <v>215.46537506600001</v>
+        <v>56515.102293000004</v>
       </c>
       <c r="F13">
-        <v>858.21638739599996</v>
+        <v>6930838.6601430001</v>
       </c>
       <c r="G13">
-        <v>65.256073118000003</v>
+        <v>17983.319157000002</v>
       </c>
       <c r="H13">
-        <v>792.96031427800006</v>
+        <v>6912855.3409860004</v>
       </c>
       <c r="I13">
-        <v>238.966111458</v>
-      </c>
-      <c r="J13">
-        <v>12557</v>
-      </c>
-      <c r="K13">
-        <v>12473</v>
-      </c>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>58723.332380000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.15</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B14">
-        <v>1266.6025160459999</v>
+        <v>6960044.1920419997</v>
       </c>
       <c r="C14">
-        <v>89.999486522000012</v>
+        <v>20716.029781000001</v>
       </c>
       <c r="D14">
-        <v>1176.603029526</v>
+        <v>6939328.1622620001</v>
       </c>
       <c r="E14">
-        <v>211.76945444</v>
+        <v>56256.425196999997</v>
       </c>
       <c r="F14">
-        <v>976.42550808199996</v>
+        <v>7396065.0100419996</v>
       </c>
       <c r="G14">
-        <v>65.484877580000003</v>
+        <v>17814.740933000001</v>
       </c>
       <c r="H14">
-        <v>910.9406305</v>
+        <v>7378250.2691090005</v>
       </c>
       <c r="I14">
-        <v>235.13332729000001</v>
-      </c>
-      <c r="J14">
-        <v>12582</v>
-      </c>
-      <c r="K14">
-        <v>12498</v>
-      </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>58473.379308000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="B15">
-        <v>1369.9578391499999</v>
+        <v>7415049.7054650001</v>
       </c>
       <c r="C15">
-        <v>93.744078339999987</v>
+        <v>20871.476905</v>
       </c>
       <c r="D15">
-        <v>1276.2137608099999</v>
+        <v>7394178.2285590004</v>
       </c>
       <c r="E15">
-        <v>218.52607807999999</v>
+        <v>56212.975376000002</v>
       </c>
       <c r="F15">
-        <v>1155.4245536420001</v>
+        <v>7921829.8852070002</v>
       </c>
       <c r="G15">
-        <v>66.498893979999991</v>
+        <v>17666.149868</v>
       </c>
       <c r="H15">
-        <v>1088.925659662</v>
+        <v>7904163.7353389999</v>
       </c>
       <c r="I15">
-        <v>242.176905202</v>
-      </c>
-      <c r="J15">
-        <v>12754</v>
-      </c>
-      <c r="K15">
-        <v>12658</v>
-      </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>58451.222418999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.17</v>
+        <v>0.65</v>
       </c>
       <c r="B16">
-        <v>1250.035877136</v>
+        <v>7677871.1433610003</v>
       </c>
       <c r="C16">
-        <v>92.309565566000003</v>
+        <v>20825.274311000001</v>
       </c>
       <c r="D16">
-        <v>1157.72631157</v>
+        <v>7657045.8690499999</v>
       </c>
       <c r="E16">
-        <v>215.93283428199999</v>
+        <v>55841.892938999998</v>
       </c>
       <c r="F16">
-        <v>1188.769412134</v>
+        <v>8211510.6068320004</v>
       </c>
       <c r="G16">
-        <v>66.652389185999994</v>
+        <v>17462.558722000002</v>
       </c>
       <c r="H16">
-        <v>1122.1170229480001</v>
+        <v>8194048.0481099999</v>
       </c>
       <c r="I16">
-        <v>239.37313913</v>
-      </c>
-      <c r="J16">
-        <v>12813</v>
-      </c>
-      <c r="K16">
-        <v>12724</v>
-      </c>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>58080.913783999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.18</v>
+        <v>0.7</v>
       </c>
       <c r="B17">
-        <v>1324.9680810740001</v>
+        <v>7736172.70658</v>
       </c>
       <c r="C17">
-        <v>95.149361455999994</v>
+        <v>20847.382429000001</v>
       </c>
       <c r="D17">
-        <v>1229.8187196179999</v>
+        <v>7715325.324151</v>
       </c>
       <c r="E17">
-        <v>219.81947305</v>
+        <v>55725.074610999996</v>
       </c>
       <c r="F17">
-        <v>1294.8384627160001</v>
+        <v>8410427.762317</v>
       </c>
       <c r="G17">
-        <v>66.626933088000001</v>
+        <v>17358.723797999999</v>
       </c>
       <c r="H17">
-        <v>1228.2115296280001</v>
+        <v>8393069.0385200009</v>
       </c>
       <c r="I17">
-        <v>243.67235200799999</v>
-      </c>
-      <c r="J17">
-        <v>13155</v>
-      </c>
-      <c r="K17">
-        <v>13062</v>
-      </c>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>57952.923079</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.19</v>
+        <v>0.75</v>
       </c>
       <c r="B18">
-        <v>1383.4505979</v>
+        <v>8144133.702273</v>
       </c>
       <c r="C18">
-        <v>95.506074158000004</v>
+        <v>20929.899158</v>
       </c>
       <c r="D18">
-        <v>1287.944523742</v>
+        <v>8123203.8031139998</v>
       </c>
       <c r="E18">
-        <v>219.334519336</v>
+        <v>55712.979067</v>
       </c>
       <c r="F18">
-        <v>1349.0682627480001</v>
+        <v>8686523.6379860006</v>
       </c>
       <c r="G18">
-        <v>67.408818850000003</v>
+        <v>17187.559518999999</v>
       </c>
       <c r="H18">
-        <v>1281.6594438980001</v>
+        <v>8669336.0784680005</v>
       </c>
       <c r="I18">
-        <v>243.069513392</v>
-      </c>
-      <c r="J18">
-        <v>13286</v>
-      </c>
-      <c r="K18">
-        <v>13199</v>
-      </c>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>57955.634077000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="B19">
-        <v>1362.016328684</v>
+        <v>8616511.8591370005</v>
       </c>
       <c r="C19">
-        <v>95.651756014</v>
+        <v>20685.392831000001</v>
       </c>
       <c r="D19">
-        <v>1266.3645726719999</v>
+        <v>8595826.4663059991</v>
       </c>
       <c r="E19">
-        <v>220.19226413600001</v>
+        <v>55140.364153000002</v>
       </c>
       <c r="F19">
-        <v>1372.9377777780001</v>
+        <v>8916031.6037399992</v>
       </c>
       <c r="G19">
-        <v>66.443851852000009</v>
+        <v>16988.999554000002</v>
       </c>
       <c r="H19">
-        <v>1306.493925926</v>
+        <v>8899042.6041860003</v>
       </c>
       <c r="I19">
-        <v>244.201030086</v>
-      </c>
-      <c r="J19">
-        <v>13597</v>
-      </c>
-      <c r="K19">
-        <v>13500</v>
-      </c>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>57379.494183000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.21</v>
+        <v>0.8</v>
       </c>
       <c r="B20">
-        <v>1489.971328736</v>
+        <v>8917804.5903270002</v>
       </c>
       <c r="C20">
-        <v>95.547920632</v>
+        <v>20352.536502999999</v>
       </c>
       <c r="D20">
-        <v>1394.4234081059999</v>
+        <v>8897452.0538229998</v>
       </c>
       <c r="E20">
-        <v>219.21476611599999</v>
+        <v>54300.249456000012</v>
       </c>
       <c r="F20">
-        <v>1550.216733944</v>
+        <v>9020625.6421060003</v>
       </c>
       <c r="G20">
-        <v>66.649174312</v>
+        <v>16699.683555</v>
       </c>
       <c r="H20">
-        <v>1483.567559634</v>
+        <v>9003925.9585510008</v>
       </c>
       <c r="I20">
-        <v>242.880051178</v>
-      </c>
-      <c r="J20">
-        <v>13718</v>
-      </c>
-      <c r="K20">
-        <v>13625</v>
-      </c>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>56551.136788999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.22</v>
+        <v>0.9</v>
       </c>
       <c r="B21">
-        <v>1422.53842244</v>
+        <v>9188764.6678490005</v>
       </c>
       <c r="C21">
-        <v>95.864385779999992</v>
+        <v>20264.874693999998</v>
       </c>
       <c r="D21">
-        <v>1326.67403666</v>
+        <v>9168499.7931549996</v>
       </c>
       <c r="E21">
-        <v>220.00678810599999</v>
+        <v>54049.671224999998</v>
       </c>
       <c r="F21">
-        <v>1493.6225775559999</v>
+        <v>9113853.1442910004</v>
       </c>
       <c r="G21">
-        <v>66.348242576000004</v>
+        <v>16565.380387000001</v>
       </c>
       <c r="H21">
-        <v>1427.2743349780001</v>
+        <v>9097287.7639029995</v>
       </c>
       <c r="I21">
-        <v>244.14421970399999</v>
-      </c>
-      <c r="J21">
-        <v>13666</v>
-      </c>
-      <c r="K21">
-        <v>13571</v>
-      </c>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>56296.639819000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.23</v>
+        <v>0.95</v>
       </c>
       <c r="B22">
-        <v>1526.410062272</v>
+        <v>9482445.9136660006</v>
       </c>
       <c r="C22">
-        <v>96.325555882000003</v>
+        <v>20082.244428000002</v>
       </c>
       <c r="D22">
-        <v>1430.0845063899999</v>
+        <v>9462363.6692379992</v>
       </c>
       <c r="E22">
-        <v>220.28295474399999</v>
+        <v>53588.859542000013</v>
       </c>
       <c r="F22">
-        <v>1649.290832076</v>
+        <v>9200175.4296850003</v>
       </c>
       <c r="G22">
-        <v>66.210639671999999</v>
+        <v>16384.052015000001</v>
       </c>
       <c r="H22">
-        <v>1583.0801924039999</v>
+        <v>9183791.3776699994</v>
       </c>
       <c r="I22">
-        <v>243.77867519200001</v>
-      </c>
-      <c r="J22">
-        <v>14020</v>
-      </c>
-      <c r="K22">
-        <v>13929</v>
-      </c>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>55844.087466999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.24</v>
+        <v>0.99</v>
       </c>
       <c r="B23">
-        <v>1510.3942509819999</v>
+        <v>9650572.2770639993</v>
       </c>
       <c r="C23">
-        <v>93.910352496000002</v>
+        <v>19951.676646</v>
       </c>
       <c r="D23">
-        <v>1416.483898486</v>
+        <v>9630620.6004179996</v>
       </c>
       <c r="E23">
-        <v>215.50879576599999</v>
+        <v>53318.518078000001</v>
       </c>
       <c r="F23">
-        <v>1580.3802555499999</v>
+        <v>9212610.9782139994</v>
       </c>
       <c r="G23">
-        <v>65.503247911999992</v>
+        <v>16267.373247</v>
       </c>
       <c r="H23">
-        <v>1514.8770076379999</v>
+        <v>9196343.604967</v>
       </c>
       <c r="I23">
-        <v>239.370312552</v>
-      </c>
-      <c r="J23">
-        <v>14107</v>
-      </c>
-      <c r="K23">
-        <v>14009</v>
-      </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>0.25</v>
-      </c>
-      <c r="B24">
-        <v>1604.7112564720001</v>
-      </c>
-      <c r="C24">
-        <v>95.46253526400001</v>
-      </c>
-      <c r="D24">
-        <v>1509.248721208</v>
-      </c>
-      <c r="E24">
-        <v>218.34787204400001</v>
-      </c>
-      <c r="F24">
-        <v>1709.0944013660001</v>
-      </c>
-      <c r="G24">
-        <v>65.179768088000003</v>
-      </c>
-      <c r="H24">
-        <v>1643.9146332780001</v>
-      </c>
-      <c r="I24">
-        <v>242.25285246999999</v>
-      </c>
-      <c r="J24">
-        <v>14152</v>
-      </c>
-      <c r="K24">
-        <v>14057</v>
-      </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>0.26</v>
-      </c>
-      <c r="B25">
-        <v>1758.5234595899999</v>
-      </c>
-      <c r="C25">
-        <v>95.941075073999997</v>
-      </c>
-      <c r="D25">
-        <v>1662.582384516</v>
-      </c>
-      <c r="E25">
-        <v>218.656391832</v>
-      </c>
-      <c r="F25">
-        <v>1750.706759098</v>
-      </c>
-      <c r="G25">
-        <v>65.045060657999997</v>
-      </c>
-      <c r="H25">
-        <v>1685.66169844</v>
-      </c>
-      <c r="I25">
-        <v>242.59109811600001</v>
-      </c>
-      <c r="J25">
-        <v>14522</v>
-      </c>
-      <c r="K25">
-        <v>14425</v>
-      </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0.27</v>
-      </c>
-      <c r="B26">
-        <v>1721.6436033259999</v>
-      </c>
-      <c r="C26">
-        <v>94.338448107999994</v>
-      </c>
-      <c r="D26">
-        <v>1627.305155218</v>
-      </c>
-      <c r="E26">
-        <v>214.91123805000001</v>
-      </c>
-      <c r="F26">
-        <v>1750.547552642</v>
-      </c>
-      <c r="G26">
-        <v>65.174313205999994</v>
-      </c>
-      <c r="H26">
-        <v>1685.3732394359999</v>
-      </c>
-      <c r="I26">
-        <v>238.553606726</v>
-      </c>
-      <c r="J26">
-        <v>14441</v>
-      </c>
-      <c r="K26">
-        <v>14342</v>
-      </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="B27">
-        <v>1872.635034786</v>
-      </c>
-      <c r="C27">
-        <v>94.406942512000001</v>
-      </c>
-      <c r="D27">
-        <v>1778.2280922739999</v>
-      </c>
-      <c r="E27">
-        <v>214.98471444</v>
-      </c>
-      <c r="F27">
-        <v>1783.8312933499999</v>
-      </c>
-      <c r="G27">
-        <v>64.566163470000006</v>
-      </c>
-      <c r="H27">
-        <v>1719.2651298779999</v>
-      </c>
-      <c r="I27">
-        <v>238.90544350600001</v>
-      </c>
-      <c r="J27">
-        <v>14804</v>
-      </c>
-      <c r="K27">
-        <v>14706</v>
-      </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="B28">
-        <v>1699.512609488</v>
-      </c>
-      <c r="C28">
-        <v>90.776130151999993</v>
-      </c>
-      <c r="D28">
-        <v>1608.736479336</v>
-      </c>
-      <c r="E28">
-        <v>209.54283386399999</v>
-      </c>
-      <c r="F28">
-        <v>1795.5090259999999</v>
-      </c>
-      <c r="G28">
-        <v>63.177758318000002</v>
-      </c>
-      <c r="H28">
-        <v>1732.3312676820001</v>
-      </c>
-      <c r="I28">
-        <v>233.44250136599999</v>
-      </c>
-      <c r="J28">
-        <v>14948</v>
-      </c>
-      <c r="K28">
-        <v>14846</v>
-      </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>0.3</v>
-      </c>
-      <c r="B29">
-        <v>1843.870908828</v>
-      </c>
-      <c r="C29">
-        <v>91.343904913999992</v>
-      </c>
-      <c r="D29">
-        <v>1752.527003914</v>
-      </c>
-      <c r="E29">
-        <v>210.16679232600001</v>
-      </c>
-      <c r="F29">
-        <v>1830.2681169</v>
-      </c>
-      <c r="G29">
-        <v>62.988296746000003</v>
-      </c>
-      <c r="H29">
-        <v>1767.2798201539999</v>
-      </c>
-      <c r="I29">
-        <v>234.032439168</v>
-      </c>
-      <c r="J29">
-        <v>15217</v>
-      </c>
-      <c r="K29">
-        <v>15124</v>
-      </c>
-      <c r="L29" s="1"/>
+        <v>55575.605421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D312D1-BC7F-4C4D-8AB5-A0A35AD66E3E}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\soliman\m5out_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A356DD6B-C3AE-402B-942C-3885159E2D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E493914F-AE5A-4966-A7DB-7C44273CC7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L186"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\soliman\m5out_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E493914F-AE5A-4966-A7DB-7C44273CC7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA50F62-8424-4964-B049-D29707E34CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,14 +98,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -409,9 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -465,1114 +476,559 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L2">
-        <f>K2/27/10000</f>
-        <v>0</v>
-      </c>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L3">
-        <f t="shared" ref="L3:L66" si="0">K3/27/10000</f>
-        <v>0</v>
-      </c>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L33" s="1"/>
     </row>
     <row r="34" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L34" s="1"/>
     </row>
     <row r="35" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L35" s="1"/>
     </row>
     <row r="36" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L36" s="1"/>
     </row>
     <row r="37" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L37" s="1"/>
     </row>
     <row r="38" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L38" s="1"/>
     </row>
     <row r="39" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L39" s="1"/>
     </row>
     <row r="40" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L41" s="1"/>
     </row>
     <row r="42" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L42" s="1"/>
     </row>
     <row r="43" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L43" s="1"/>
     </row>
     <row r="44" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L44" s="1"/>
     </row>
     <row r="45" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L45" s="1"/>
     </row>
     <row r="46" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L46" s="1"/>
     </row>
     <row r="47" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L47" s="1"/>
     </row>
     <row r="48" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L48" s="1"/>
     </row>
     <row r="49" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L49" s="1"/>
     </row>
     <row r="50" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L50" s="1"/>
     </row>
     <row r="51" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L51" s="1"/>
     </row>
     <row r="52" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L52" s="1"/>
     </row>
     <row r="53" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L53" s="1"/>
     </row>
     <row r="54" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L54" s="1"/>
     </row>
     <row r="55" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L55" s="1"/>
     </row>
     <row r="56" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L56" s="1"/>
     </row>
     <row r="57" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L57" s="1"/>
     </row>
     <row r="58" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L58" s="1"/>
     </row>
     <row r="59" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L59" s="1"/>
     </row>
     <row r="60" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L60" s="1"/>
     </row>
     <row r="61" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L61" s="1"/>
     </row>
     <row r="62" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L62" s="1"/>
     </row>
     <row r="63" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L63" s="1"/>
     </row>
     <row r="64" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L64" s="1"/>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L65" s="1"/>
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L66" s="1"/>
     </row>
     <row r="67" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L67">
-        <f t="shared" ref="L67:L130" si="1">K67/27/10000</f>
-        <v>0</v>
-      </c>
+      <c r="L67" s="1"/>
     </row>
     <row r="68" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L68" s="1"/>
     </row>
     <row r="69" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L69" s="1"/>
     </row>
     <row r="70" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L70" s="1"/>
     </row>
     <row r="71" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L71" s="1"/>
     </row>
     <row r="72" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L72" s="1"/>
     </row>
     <row r="73" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L73" s="1"/>
     </row>
     <row r="74" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L74" s="1"/>
     </row>
     <row r="75" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L75" s="1"/>
     </row>
     <row r="76" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L76" s="1"/>
     </row>
     <row r="77" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L77" s="1"/>
     </row>
     <row r="78" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L78" s="1"/>
     </row>
     <row r="79" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L79" s="1"/>
     </row>
     <row r="80" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L80" s="1"/>
     </row>
     <row r="81" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L81" s="1"/>
     </row>
     <row r="82" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L82" s="1"/>
     </row>
     <row r="83" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L83" s="1"/>
     </row>
     <row r="84" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L84" s="1"/>
     </row>
     <row r="85" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L85" s="1"/>
     </row>
     <row r="86" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L86" s="1"/>
     </row>
     <row r="87" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L87" s="1"/>
     </row>
     <row r="88" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L88" s="1"/>
     </row>
     <row r="89" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L89" s="1"/>
     </row>
     <row r="90" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L90" s="1"/>
     </row>
     <row r="91" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L91" s="1"/>
     </row>
     <row r="92" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L92" s="1"/>
     </row>
     <row r="93" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L93" s="1"/>
     </row>
     <row r="94" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L94" s="1"/>
     </row>
     <row r="95" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L95" s="1"/>
     </row>
     <row r="96" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L96" s="1"/>
     </row>
     <row r="97" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L97" s="1"/>
     </row>
     <row r="98" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L98" s="1"/>
     </row>
     <row r="99" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L99" s="1"/>
     </row>
     <row r="100" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L100" s="1"/>
     </row>
     <row r="101" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L101" s="1"/>
     </row>
     <row r="102" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L102" s="1"/>
     </row>
     <row r="103" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L103" s="1"/>
     </row>
     <row r="104" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L104" s="1"/>
     </row>
     <row r="105" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L105" s="1"/>
     </row>
     <row r="106" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L106" s="1"/>
     </row>
     <row r="107" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L107" s="1"/>
     </row>
     <row r="108" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L108" s="1"/>
     </row>
     <row r="109" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L109" s="1"/>
     </row>
     <row r="110" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L110" s="1"/>
     </row>
     <row r="111" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L111" s="1"/>
     </row>
     <row r="112" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L112" s="1"/>
     </row>
     <row r="113" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L113" s="1"/>
     </row>
     <row r="114" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L114" s="1"/>
     </row>
     <row r="115" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L115" s="1"/>
     </row>
     <row r="116" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L116" s="1"/>
     </row>
     <row r="117" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L117" s="1"/>
     </row>
     <row r="118" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L118" s="1"/>
     </row>
     <row r="119" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L119" s="1"/>
     </row>
     <row r="120" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L120" s="1"/>
     </row>
     <row r="121" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L121" s="1"/>
     </row>
     <row r="122" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L122" s="1"/>
     </row>
     <row r="123" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L123" s="1"/>
     </row>
     <row r="124" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L124" s="1"/>
     </row>
     <row r="125" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L125" s="1"/>
     </row>
     <row r="126" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L126" s="1"/>
     </row>
     <row r="127" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L127" s="1"/>
     </row>
     <row r="128" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L128" s="1"/>
     </row>
     <row r="129" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L129" s="1"/>
     </row>
     <row r="130" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="L130" s="1"/>
     </row>
     <row r="131" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L131">
-        <f t="shared" ref="L131:L186" si="2">K131/27/10000</f>
-        <v>0</v>
-      </c>
+      <c r="L131" s="1"/>
     </row>
     <row r="132" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L132" s="1"/>
     </row>
     <row r="133" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L133">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L133" s="1"/>
     </row>
     <row r="134" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L134" s="1"/>
     </row>
     <row r="135" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L135" s="1"/>
     </row>
     <row r="136" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L136" s="1"/>
     </row>
     <row r="137" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L137" s="1"/>
     </row>
     <row r="138" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L138">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L138" s="1"/>
     </row>
     <row r="139" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L139" s="1"/>
     </row>
     <row r="140" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L140" s="1"/>
     </row>
     <row r="141" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L141" s="1"/>
     </row>
     <row r="142" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L142">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L142" s="1"/>
     </row>
     <row r="143" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L143">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L143" s="1"/>
     </row>
     <row r="144" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L144" s="1"/>
     </row>
     <row r="145" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L145" s="1"/>
     </row>
     <row r="146" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L146" s="1"/>
     </row>
     <row r="147" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L147">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L147" s="1"/>
     </row>
     <row r="148" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L148">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L148" s="1"/>
     </row>
     <row r="149" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L149">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L149" s="1"/>
     </row>
     <row r="150" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L150">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L150" s="1"/>
     </row>
     <row r="151" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L151" s="1"/>
     </row>
     <row r="152" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L152" s="1"/>
     </row>
     <row r="153" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L153" s="1"/>
     </row>
     <row r="154" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L154">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L154" s="1"/>
     </row>
     <row r="155" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L155">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L155" s="1"/>
     </row>
     <row r="156" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L156">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L156" s="1"/>
     </row>
     <row r="157" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L157">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L157" s="1"/>
     </row>
     <row r="158" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L158">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L158" s="1"/>
     </row>
     <row r="159" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L159">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L159" s="1"/>
     </row>
     <row r="160" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L160">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L160" s="1"/>
     </row>
     <row r="161" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L161">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L161" s="1"/>
     </row>
     <row r="162" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L162" s="1"/>
     </row>
     <row r="163" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L163">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L163" s="1"/>
     </row>
     <row r="164" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L164">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L164" s="1"/>
     </row>
     <row r="165" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L165">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L165" s="1"/>
     </row>
     <row r="166" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L166" s="1"/>
     </row>
     <row r="167" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L167">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L167" s="1"/>
     </row>
     <row r="168" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L168">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L168" s="1"/>
     </row>
     <row r="169" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L169">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L169" s="1"/>
     </row>
     <row r="170" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L170">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L170" s="1"/>
     </row>
     <row r="171" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L171">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L171" s="1"/>
     </row>
     <row r="172" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L172">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L172" s="1"/>
     </row>
     <row r="173" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L173">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L173" s="1"/>
     </row>
     <row r="174" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L174">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L174" s="1"/>
     </row>
     <row r="175" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L175">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L175" s="1"/>
     </row>
     <row r="176" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L176">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L176" s="1"/>
     </row>
     <row r="177" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L177">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L177" s="1"/>
     </row>
     <row r="178" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L178">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L178" s="1"/>
     </row>
     <row r="179" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L179">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L179" s="1"/>
     </row>
     <row r="180" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L180">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L180" s="1"/>
     </row>
     <row r="181" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L181">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L181" s="1"/>
     </row>
     <row r="182" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L182">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L182" s="1"/>
     </row>
     <row r="183" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L183" s="1"/>
     </row>
     <row r="184" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L184">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L184" s="1"/>
     </row>
     <row r="185" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L185">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L185" s="1"/>
     </row>
     <row r="186" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L186">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L186" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/m5out_stats.xlsx
+++ b/m5out_stats.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L196"/>
+  <dimension ref="A1:L287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1453,6 +1453,3464 @@
         <v>0.04473333333333333</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B197" t="n">
+        <v>247.01264045</v>
+      </c>
+      <c r="C197" t="n">
+        <v>38.727103476</v>
+      </c>
+      <c r="D197" t="n">
+        <v>208.285536974</v>
+      </c>
+      <c r="E197" t="n">
+        <v>27.02133212866666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>125.318768394</v>
+      </c>
+      <c r="G197" t="n">
+        <v>28.055995774</v>
+      </c>
+      <c r="H197" t="n">
+        <v>97.26277262000001</v>
+      </c>
+      <c r="I197" t="n">
+        <v>28.26378511666666</v>
+      </c>
+      <c r="J197" t="n">
+        <v>13284</v>
+      </c>
+      <c r="K197" t="n">
+        <v>13251</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0.04907777777777778</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="B198" t="n">
+        <v>392.662418156</v>
+      </c>
+      <c r="C198" t="n">
+        <v>43.930137944</v>
+      </c>
+      <c r="D198" t="n">
+        <v>348.732280212</v>
+      </c>
+      <c r="E198" t="n">
+        <v>29.89398618733333</v>
+      </c>
+      <c r="F198" t="n">
+        <v>185.8167114</v>
+      </c>
+      <c r="G198" t="n">
+        <v>29.934454018</v>
+      </c>
+      <c r="H198" t="n">
+        <v>155.88225738</v>
+      </c>
+      <c r="I198" t="n">
+        <v>31.15308222266667</v>
+      </c>
+      <c r="J198" t="n">
+        <v>14196</v>
+      </c>
+      <c r="K198" t="n">
+        <v>14158</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0.05243703703703703</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B199" t="n">
+        <v>546.355917986</v>
+      </c>
+      <c r="C199" t="n">
+        <v>44.594967382</v>
+      </c>
+      <c r="D199" t="n">
+        <v>501.7609506060001</v>
+      </c>
+      <c r="E199" t="n">
+        <v>30.712856616</v>
+      </c>
+      <c r="F199" t="n">
+        <v>246.070985802</v>
+      </c>
+      <c r="G199" t="n">
+        <v>29.829234154</v>
+      </c>
+      <c r="H199" t="n">
+        <v>216.24175165</v>
+      </c>
+      <c r="I199" t="n">
+        <v>31.961144416</v>
+      </c>
+      <c r="J199" t="n">
+        <v>15043</v>
+      </c>
+      <c r="K199" t="n">
+        <v>15003</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.05556666666666666</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="B200" t="n">
+        <v>546.127849588</v>
+      </c>
+      <c r="C200" t="n">
+        <v>43.62206228</v>
+      </c>
+      <c r="D200" t="n">
+        <v>502.50578731</v>
+      </c>
+      <c r="E200" t="n">
+        <v>30.509812846</v>
+      </c>
+      <c r="F200" t="n">
+        <v>241.431597802</v>
+      </c>
+      <c r="G200" t="n">
+        <v>29.192884936</v>
+      </c>
+      <c r="H200" t="n">
+        <v>212.238712866</v>
+      </c>
+      <c r="I200" t="n">
+        <v>31.765984342</v>
+      </c>
+      <c r="J200" t="n">
+        <v>16242</v>
+      </c>
+      <c r="K200" t="n">
+        <v>16191</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0.05996666666666666</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B201" t="n">
+        <v>709.975702204</v>
+      </c>
+      <c r="C201" t="n">
+        <v>43.236076146</v>
+      </c>
+      <c r="D201" t="n">
+        <v>666.739626058</v>
+      </c>
+      <c r="E201" t="n">
+        <v>30.52766850533333</v>
+      </c>
+      <c r="F201" t="n">
+        <v>305.773501024</v>
+      </c>
+      <c r="G201" t="n">
+        <v>28.827376426</v>
+      </c>
+      <c r="H201" t="n">
+        <v>276.946124598</v>
+      </c>
+      <c r="I201" t="n">
+        <v>31.78130282933333</v>
+      </c>
+      <c r="J201" t="n">
+        <v>17147</v>
+      </c>
+      <c r="K201" t="n">
+        <v>17095</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0.06331481481481481</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B202" t="n">
+        <v>696.170760556</v>
+      </c>
+      <c r="C202" t="n">
+        <v>42.890634026</v>
+      </c>
+      <c r="D202" t="n">
+        <v>653.28012653</v>
+      </c>
+      <c r="E202" t="n">
+        <v>30.878830744</v>
+      </c>
+      <c r="F202" t="n">
+        <v>292.62679876</v>
+      </c>
+      <c r="G202" t="n">
+        <v>28.574551694</v>
+      </c>
+      <c r="H202" t="n">
+        <v>264.052247066</v>
+      </c>
+      <c r="I202" t="n">
+        <v>32.15080626866667</v>
+      </c>
+      <c r="J202" t="n">
+        <v>18125</v>
+      </c>
+      <c r="K202" t="n">
+        <v>18068</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0.06691851851851852</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B203" t="n">
+        <v>834.2321562339999</v>
+      </c>
+      <c r="C203" t="n">
+        <v>42.592188336</v>
+      </c>
+      <c r="D203" t="n">
+        <v>791.639967898</v>
+      </c>
+      <c r="E203" t="n">
+        <v>31.088961842</v>
+      </c>
+      <c r="F203" t="n">
+        <v>341.673245382</v>
+      </c>
+      <c r="G203" t="n">
+        <v>28.346807388</v>
+      </c>
+      <c r="H203" t="n">
+        <v>313.326437994</v>
+      </c>
+      <c r="I203" t="n">
+        <v>32.361463816</v>
+      </c>
+      <c r="J203" t="n">
+        <v>19011</v>
+      </c>
+      <c r="K203" t="n">
+        <v>18950</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0.07018518518518518</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="B204" t="n">
+        <v>835.807297256</v>
+      </c>
+      <c r="C204" t="n">
+        <v>41.84884255799999</v>
+      </c>
+      <c r="D204" t="n">
+        <v>793.958454698</v>
+      </c>
+      <c r="E204" t="n">
+        <v>30.919253552</v>
+      </c>
+      <c r="F204" t="n">
+        <v>339.814859258</v>
+      </c>
+      <c r="G204" t="n">
+        <v>28.128293586</v>
+      </c>
+      <c r="H204" t="n">
+        <v>311.686565672</v>
+      </c>
+      <c r="I204" t="n">
+        <v>32.20072801200001</v>
+      </c>
+      <c r="J204" t="n">
+        <v>20060</v>
+      </c>
+      <c r="K204" t="n">
+        <v>20001</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0.07407777777777778</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B205" t="n">
+        <v>815.963123316</v>
+      </c>
+      <c r="C205" t="n">
+        <v>41.174289526</v>
+      </c>
+      <c r="D205" t="n">
+        <v>774.7888337899999</v>
+      </c>
+      <c r="E205" t="n">
+        <v>31.13580486466667</v>
+      </c>
+      <c r="F205" t="n">
+        <v>323.449258018</v>
+      </c>
+      <c r="G205" t="n">
+        <v>27.821780756</v>
+      </c>
+      <c r="H205" t="n">
+        <v>295.627477262</v>
+      </c>
+      <c r="I205" t="n">
+        <v>32.42400883200001</v>
+      </c>
+      <c r="J205" t="n">
+        <v>20944</v>
+      </c>
+      <c r="K205" t="n">
+        <v>20890</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0.07737037037037037</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B206" t="n">
+        <v>922.8866447619999</v>
+      </c>
+      <c r="C206" t="n">
+        <v>40.897685544</v>
+      </c>
+      <c r="D206" t="n">
+        <v>881.98895922</v>
+      </c>
+      <c r="E206" t="n">
+        <v>31.28187730933333</v>
+      </c>
+      <c r="F206" t="n">
+        <v>363.33235698</v>
+      </c>
+      <c r="G206" t="n">
+        <v>28.038672768</v>
+      </c>
+      <c r="H206" t="n">
+        <v>335.29368421</v>
+      </c>
+      <c r="I206" t="n">
+        <v>32.58122189466667</v>
+      </c>
+      <c r="J206" t="n">
+        <v>21903</v>
+      </c>
+      <c r="K206" t="n">
+        <v>21850</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0.08092592592592593</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B207" t="n">
+        <v>925.159499906</v>
+      </c>
+      <c r="C207" t="n">
+        <v>40.73505872400001</v>
+      </c>
+      <c r="D207" t="n">
+        <v>884.424441182</v>
+      </c>
+      <c r="E207" t="n">
+        <v>31.79688254266667</v>
+      </c>
+      <c r="F207" t="n">
+        <v>357.006976132</v>
+      </c>
+      <c r="G207" t="n">
+        <v>28.190286066</v>
+      </c>
+      <c r="H207" t="n">
+        <v>328.816690066</v>
+      </c>
+      <c r="I207" t="n">
+        <v>33.09797399</v>
+      </c>
+      <c r="J207" t="n">
+        <v>22853</v>
+      </c>
+      <c r="K207" t="n">
+        <v>22792</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0.08441481481481482</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="B208" t="n">
+        <v>982.124143894</v>
+      </c>
+      <c r="C208" t="n">
+        <v>41.135520718</v>
+      </c>
+      <c r="D208" t="n">
+        <v>940.9886231759999</v>
+      </c>
+      <c r="E208" t="n">
+        <v>98.375028332</v>
+      </c>
+      <c r="F208" t="n">
+        <v>375.90007102</v>
+      </c>
+      <c r="G208" t="n">
+        <v>29.204453356</v>
+      </c>
+      <c r="H208" t="n">
+        <v>346.695617664</v>
+      </c>
+      <c r="I208" t="n">
+        <v>102.270290906</v>
+      </c>
+      <c r="J208" t="n">
+        <v>24011</v>
+      </c>
+      <c r="K208" t="n">
+        <v>23937</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0.08865555555555556</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="B209" t="n">
+        <v>950.333079456</v>
+      </c>
+      <c r="C209" t="n">
+        <v>41.178154612</v>
+      </c>
+      <c r="D209" t="n">
+        <v>909.154924844</v>
+      </c>
+      <c r="E209" t="n">
+        <v>100.866133508</v>
+      </c>
+      <c r="F209" t="n">
+        <v>362.568813312</v>
+      </c>
+      <c r="G209" t="n">
+        <v>30.144542532</v>
+      </c>
+      <c r="H209" t="n">
+        <v>332.424270778</v>
+      </c>
+      <c r="I209" t="n">
+        <v>104.824363716</v>
+      </c>
+      <c r="J209" t="n">
+        <v>24647</v>
+      </c>
+      <c r="K209" t="n">
+        <v>24581</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0.09104074074074074</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1007.394913336</v>
+      </c>
+      <c r="C210" t="n">
+        <v>42.258470516</v>
+      </c>
+      <c r="D210" t="n">
+        <v>965.136442818</v>
+      </c>
+      <c r="E210" t="n">
+        <v>107.023429704</v>
+      </c>
+      <c r="F210" t="n">
+        <v>383.477910238</v>
+      </c>
+      <c r="G210" t="n">
+        <v>32.350514258</v>
+      </c>
+      <c r="H210" t="n">
+        <v>351.12739598</v>
+      </c>
+      <c r="I210" t="n">
+        <v>110.995793808</v>
+      </c>
+      <c r="J210" t="n">
+        <v>25749</v>
+      </c>
+      <c r="K210" t="n">
+        <v>25668</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0.09506666666666666</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="B211" t="n">
+        <v>983.340505762</v>
+      </c>
+      <c r="C211" t="n">
+        <v>44.930399028</v>
+      </c>
+      <c r="D211" t="n">
+        <v>938.410106734</v>
+      </c>
+      <c r="E211" t="n">
+        <v>119.801762242</v>
+      </c>
+      <c r="F211" t="n">
+        <v>403.331386972</v>
+      </c>
+      <c r="G211" t="n">
+        <v>37.502805794</v>
+      </c>
+      <c r="H211" t="n">
+        <v>365.828581178</v>
+      </c>
+      <c r="I211" t="n">
+        <v>123.892233806</v>
+      </c>
+      <c r="J211" t="n">
+        <v>26475</v>
+      </c>
+      <c r="K211" t="n">
+        <v>26374</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0.09768148148148148</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1058.953737926</v>
+      </c>
+      <c r="C212" t="n">
+        <v>46.788849224</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1012.164888702</v>
+      </c>
+      <c r="E212" t="n">
+        <v>128.186546972</v>
+      </c>
+      <c r="F212" t="n">
+        <v>534.544095106</v>
+      </c>
+      <c r="G212" t="n">
+        <v>40.888593966</v>
+      </c>
+      <c r="H212" t="n">
+        <v>493.65550114</v>
+      </c>
+      <c r="I212" t="n">
+        <v>132.226712756</v>
+      </c>
+      <c r="J212" t="n">
+        <v>26873</v>
+      </c>
+      <c r="K212" t="n">
+        <v>26749</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0.09907037037037036</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1202.071880416</v>
+      </c>
+      <c r="C213" t="n">
+        <v>47.531535106</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1154.54034531</v>
+      </c>
+      <c r="E213" t="n">
+        <v>131.858616384</v>
+      </c>
+      <c r="F213" t="n">
+        <v>653.947748624</v>
+      </c>
+      <c r="G213" t="n">
+        <v>42.5465434</v>
+      </c>
+      <c r="H213" t="n">
+        <v>611.401205226</v>
+      </c>
+      <c r="I213" t="n">
+        <v>135.91979071</v>
+      </c>
+      <c r="J213" t="n">
+        <v>26838</v>
+      </c>
+      <c r="K213" t="n">
+        <v>26717</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0.09895185185185185</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1204.61399141</v>
+      </c>
+      <c r="C214" t="n">
+        <v>47.721312836</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1156.892678576</v>
+      </c>
+      <c r="E214" t="n">
+        <v>133.156040716</v>
+      </c>
+      <c r="F214" t="n">
+        <v>738.6356055799999</v>
+      </c>
+      <c r="G214" t="n">
+        <v>43.21878622400001</v>
+      </c>
+      <c r="H214" t="n">
+        <v>695.416819354</v>
+      </c>
+      <c r="I214" t="n">
+        <v>137.244754022</v>
+      </c>
+      <c r="J214" t="n">
+        <v>26871</v>
+      </c>
+      <c r="K214" t="n">
+        <v>26743</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0.09904814814814815</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1234.608208046</v>
+      </c>
+      <c r="C215" t="n">
+        <v>48.361296222</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1186.246911824</v>
+      </c>
+      <c r="E215" t="n">
+        <v>135.775029114</v>
+      </c>
+      <c r="F215" t="n">
+        <v>767.8850578939999</v>
+      </c>
+      <c r="G215" t="n">
+        <v>44.279985296</v>
+      </c>
+      <c r="H215" t="n">
+        <v>723.605072596</v>
+      </c>
+      <c r="I215" t="n">
+        <v>139.852641922</v>
+      </c>
+      <c r="J215" t="n">
+        <v>27329</v>
+      </c>
+      <c r="K215" t="n">
+        <v>27205</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0.1007592592592593</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1246.46019346</v>
+      </c>
+      <c r="C216" t="n">
+        <v>47.724472894</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1198.735720566</v>
+      </c>
+      <c r="E216" t="n">
+        <v>134.425678474</v>
+      </c>
+      <c r="F216" t="n">
+        <v>884.74445224</v>
+      </c>
+      <c r="G216" t="n">
+        <v>43.908651184</v>
+      </c>
+      <c r="H216" t="n">
+        <v>840.835801056</v>
+      </c>
+      <c r="I216" t="n">
+        <v>138.493133508</v>
+      </c>
+      <c r="J216" t="n">
+        <v>27209</v>
+      </c>
+      <c r="K216" t="n">
+        <v>27083</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0.1003074074074074</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1237.741410742</v>
+      </c>
+      <c r="C217" t="n">
+        <v>47.112506762</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1190.62890398</v>
+      </c>
+      <c r="E217" t="n">
+        <v>133.16511008</v>
+      </c>
+      <c r="F217" t="n">
+        <v>907.4895072</v>
+      </c>
+      <c r="G217" t="n">
+        <v>43.604349084</v>
+      </c>
+      <c r="H217" t="n">
+        <v>863.885158116</v>
+      </c>
+      <c r="I217" t="n">
+        <v>137.246769286</v>
+      </c>
+      <c r="J217" t="n">
+        <v>27758</v>
+      </c>
+      <c r="K217" t="n">
+        <v>27638</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0.102362962962963</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1345.240526462</v>
+      </c>
+      <c r="C218" t="n">
+        <v>47.849218656</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1297.391307806</v>
+      </c>
+      <c r="E218" t="n">
+        <v>136.160677488</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1007.18219288</v>
+      </c>
+      <c r="G218" t="n">
+        <v>44.935621534</v>
+      </c>
+      <c r="H218" t="n">
+        <v>962.246571346</v>
+      </c>
+      <c r="I218" t="n">
+        <v>140.267311258</v>
+      </c>
+      <c r="J218" t="n">
+        <v>27549</v>
+      </c>
+      <c r="K218" t="n">
+        <v>27416</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0.1015407407407407</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1399.815375098</v>
+      </c>
+      <c r="C219" t="n">
+        <v>48.48246752</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1351.332907578</v>
+      </c>
+      <c r="E219" t="n">
+        <v>137.45984235</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1097.325576368</v>
+      </c>
+      <c r="G219" t="n">
+        <v>45.06721902</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1052.258357348</v>
+      </c>
+      <c r="I219" t="n">
+        <v>141.576414474</v>
+      </c>
+      <c r="J219" t="n">
+        <v>27881</v>
+      </c>
+      <c r="K219" t="n">
+        <v>27760</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0.1028148148148148</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1438.143135136</v>
+      </c>
+      <c r="C220" t="n">
+        <v>48.054486486</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1390.088648648</v>
+      </c>
+      <c r="E220" t="n">
+        <v>135.718313666</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1148.825695962</v>
+      </c>
+      <c r="G220" t="n">
+        <v>44.531475046</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1104.294220916</v>
+      </c>
+      <c r="I220" t="n">
+        <v>139.850709204</v>
+      </c>
+      <c r="J220" t="n">
+        <v>28035</v>
+      </c>
+      <c r="K220" t="n">
+        <v>27911</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0.1033740740740741</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1482.263387956</v>
+      </c>
+      <c r="C221" t="n">
+        <v>48.50786028</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1433.755527678</v>
+      </c>
+      <c r="E221" t="n">
+        <v>137.585318464</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1190.856637738</v>
+      </c>
+      <c r="G221" t="n">
+        <v>45.221472196</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1145.635165542</v>
+      </c>
+      <c r="I221" t="n">
+        <v>141.725940954</v>
+      </c>
+      <c r="J221" t="n">
+        <v>28146</v>
+      </c>
+      <c r="K221" t="n">
+        <v>27999</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0.1037</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1425.86964126</v>
+      </c>
+      <c r="C222" t="n">
+        <v>48.426444868</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1377.443196394</v>
+      </c>
+      <c r="E222" t="n">
+        <v>136.9118487</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1205.00958875</v>
+      </c>
+      <c r="G222" t="n">
+        <v>44.97254776600001</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1160.037040984</v>
+      </c>
+      <c r="I222" t="n">
+        <v>141.03996332</v>
+      </c>
+      <c r="J222" t="n">
+        <v>28291</v>
+      </c>
+      <c r="K222" t="n">
+        <v>28158</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0.1042888888888889</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1434.482863774</v>
+      </c>
+      <c r="C223" t="n">
+        <v>47.966245374</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1386.5166184</v>
+      </c>
+      <c r="E223" t="n">
+        <v>135.593850804</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1198.848395182</v>
+      </c>
+      <c r="G223" t="n">
+        <v>44.460836872</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1154.38755831</v>
+      </c>
+      <c r="I223" t="n">
+        <v>139.708164368</v>
+      </c>
+      <c r="J223" t="n">
+        <v>28852</v>
+      </c>
+      <c r="K223" t="n">
+        <v>28726</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0.1063925925925926</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1494.92345311</v>
+      </c>
+      <c r="C224" t="n">
+        <v>47.498806044</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1447.424647066</v>
+      </c>
+      <c r="E224" t="n">
+        <v>135.064310074</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1334.557620818</v>
+      </c>
+      <c r="G224" t="n">
+        <v>44.58774637</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1289.969874448</v>
+      </c>
+      <c r="I224" t="n">
+        <v>139.231168794</v>
+      </c>
+      <c r="J224" t="n">
+        <v>28656</v>
+      </c>
+      <c r="K224" t="n">
+        <v>28514</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0.1056074074074074</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1411.56835652</v>
+      </c>
+      <c r="C225" t="n">
+        <v>47.254692808</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1364.313663712</v>
+      </c>
+      <c r="E225" t="n">
+        <v>134.26401667</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1265.698416</v>
+      </c>
+      <c r="G225" t="n">
+        <v>44.24896884</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1221.44944716</v>
+      </c>
+      <c r="I225" t="n">
+        <v>138.439129152</v>
+      </c>
+      <c r="J225" t="n">
+        <v>28978</v>
+      </c>
+      <c r="K225" t="n">
+        <v>28851</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0.1068555555555556</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1495.368796838</v>
+      </c>
+      <c r="C226" t="n">
+        <v>47.686458372</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1447.682338466</v>
+      </c>
+      <c r="E226" t="n">
+        <v>135.28013661</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1296.359017462</v>
+      </c>
+      <c r="G226" t="n">
+        <v>44.610964356</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1251.748053106</v>
+      </c>
+      <c r="I226" t="n">
+        <v>139.398397744</v>
+      </c>
+      <c r="J226" t="n">
+        <v>29276</v>
+      </c>
+      <c r="K226" t="n">
+        <v>29149</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0.1079592592592593</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1469.796331578</v>
+      </c>
+      <c r="C227" t="n">
+        <v>47.941181964</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1421.855149614</v>
+      </c>
+      <c r="E227" t="n">
+        <v>135.798736112</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1376.148060174</v>
+      </c>
+      <c r="G227" t="n">
+        <v>44.760542532</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1331.387517642</v>
+      </c>
+      <c r="I227" t="n">
+        <v>139.936778406</v>
+      </c>
+      <c r="J227" t="n">
+        <v>29182</v>
+      </c>
+      <c r="K227" t="n">
+        <v>29049</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0.1075888888888889</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1549.243978748</v>
+      </c>
+      <c r="C228" t="n">
+        <v>47.70100153600001</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1501.54297721</v>
+      </c>
+      <c r="E228" t="n">
+        <v>134.960162052</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1464.498566944</v>
+      </c>
+      <c r="G228" t="n">
+        <v>44.463593558</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1420.034973386</v>
+      </c>
+      <c r="I228" t="n">
+        <v>139.10588491</v>
+      </c>
+      <c r="J228" t="n">
+        <v>29442</v>
+      </c>
+      <c r="K228" t="n">
+        <v>29308</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0.1085481481481482</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1517.789235616</v>
+      </c>
+      <c r="C229" t="n">
+        <v>47.790554152</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1469.998681464</v>
+      </c>
+      <c r="E229" t="n">
+        <v>134.760554656</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1442.835235114</v>
+      </c>
+      <c r="G229" t="n">
+        <v>44.294254266</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1398.540980848</v>
+      </c>
+      <c r="I229" t="n">
+        <v>138.948792638</v>
+      </c>
+      <c r="J229" t="n">
+        <v>29841</v>
+      </c>
+      <c r="K229" t="n">
+        <v>29709</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0.1100333333333333</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1583.23738216</v>
+      </c>
+      <c r="C230" t="n">
+        <v>47.24273024</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1535.994651922</v>
+      </c>
+      <c r="E230" t="n">
+        <v>133.695086756</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1522.958185114</v>
+      </c>
+      <c r="G230" t="n">
+        <v>44.116752802</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1478.84143231</v>
+      </c>
+      <c r="I230" t="n">
+        <v>137.906562904</v>
+      </c>
+      <c r="J230" t="n">
+        <v>29916</v>
+      </c>
+      <c r="K230" t="n">
+        <v>29798</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0.110362962962963</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1505.290173284</v>
+      </c>
+      <c r="C231" t="n">
+        <v>47.184253202</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1458.105920082</v>
+      </c>
+      <c r="E231" t="n">
+        <v>132.746393154</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1498.425869188</v>
+      </c>
+      <c r="G231" t="n">
+        <v>43.53033835</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1454.895530838</v>
+      </c>
+      <c r="I231" t="n">
+        <v>136.977199272</v>
+      </c>
+      <c r="J231" t="n">
+        <v>30157</v>
+      </c>
+      <c r="K231" t="n">
+        <v>30028</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0.1112148148148148</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1425.041274138</v>
+      </c>
+      <c r="C232" t="n">
+        <v>47.037195452</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1378.004078686</v>
+      </c>
+      <c r="E232" t="n">
+        <v>133.457411978</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1425.24569137</v>
+      </c>
+      <c r="G232" t="n">
+        <v>43.973253348</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1381.272438022</v>
+      </c>
+      <c r="I232" t="n">
+        <v>137.435645978</v>
+      </c>
+      <c r="J232" t="n">
+        <v>30302</v>
+      </c>
+      <c r="K232" t="n">
+        <v>30172</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0.1117481481481482</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1503.705675638</v>
+      </c>
+      <c r="C233" t="n">
+        <v>47.21552942</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1456.490146218</v>
+      </c>
+      <c r="E233" t="n">
+        <v>133.211153624</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1511.336047156</v>
+      </c>
+      <c r="G233" t="n">
+        <v>43.84179503</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1467.494252124</v>
+      </c>
+      <c r="I233" t="n">
+        <v>137.365361496</v>
+      </c>
+      <c r="J233" t="n">
+        <v>30849</v>
+      </c>
+      <c r="K233" t="n">
+        <v>30707</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0.1137296296296296</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1468.137013524</v>
+      </c>
+      <c r="C234" t="n">
+        <v>46.737175316</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1421.399838208</v>
+      </c>
+      <c r="E234" t="n">
+        <v>131.763405086</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1486.74330192</v>
+      </c>
+      <c r="G234" t="n">
+        <v>43.252516806</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1443.490785114</v>
+      </c>
+      <c r="I234" t="n">
+        <v>135.924787024</v>
+      </c>
+      <c r="J234" t="n">
+        <v>31231</v>
+      </c>
+      <c r="K234" t="n">
+        <v>31091</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0.1151518518518519</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1510.153934906</v>
+      </c>
+      <c r="C235" t="n">
+        <v>46.76443947</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1463.389495436</v>
+      </c>
+      <c r="E235" t="n">
+        <v>131.953362184</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1547.011175868</v>
+      </c>
+      <c r="G235" t="n">
+        <v>43.538555142</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1503.472620724</v>
+      </c>
+      <c r="I235" t="n">
+        <v>136.154092046</v>
+      </c>
+      <c r="J235" t="n">
+        <v>31383</v>
+      </c>
+      <c r="K235" t="n">
+        <v>31228</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0.1156592592592593</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1508.571742896</v>
+      </c>
+      <c r="C236" t="n">
+        <v>47.31223146200001</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1461.259511434</v>
+      </c>
+      <c r="E236" t="n">
+        <v>131.853683774</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1537.050964584</v>
+      </c>
+      <c r="G236" t="n">
+        <v>43.129219054</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1493.92174553</v>
+      </c>
+      <c r="I236" t="n">
+        <v>136.067672192</v>
+      </c>
+      <c r="J236" t="n">
+        <v>31400</v>
+      </c>
+      <c r="K236" t="n">
+        <v>31257</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0.1157666666666667</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1490.236114218</v>
+      </c>
+      <c r="C237" t="n">
+        <v>46.678273292</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1443.557840926</v>
+      </c>
+      <c r="E237" t="n">
+        <v>130.50182207</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1563.094042094</v>
+      </c>
+      <c r="G237" t="n">
+        <v>42.77732561800001</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1520.316716474</v>
+      </c>
+      <c r="I237" t="n">
+        <v>134.704685852</v>
+      </c>
+      <c r="J237" t="n">
+        <v>31590</v>
+      </c>
+      <c r="K237" t="n">
+        <v>31454</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0.1164962962962963</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1486.022514006</v>
+      </c>
+      <c r="C238" t="n">
+        <v>46.579622916</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1439.44289109</v>
+      </c>
+      <c r="E238" t="n">
+        <v>130.547204584</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1579.066191738</v>
+      </c>
+      <c r="G238" t="n">
+        <v>42.81286138799999</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1536.253330352</v>
+      </c>
+      <c r="I238" t="n">
+        <v>134.755921154</v>
+      </c>
+      <c r="J238" t="n">
+        <v>31448</v>
+      </c>
+      <c r="K238" t="n">
+        <v>31303</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0.115937037037037</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1435.018227122</v>
+      </c>
+      <c r="C239" t="n">
+        <v>46.913506502</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1388.10472062</v>
+      </c>
+      <c r="E239" t="n">
+        <v>130.704046556</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1532.039267918</v>
+      </c>
+      <c r="G239" t="n">
+        <v>42.701933624</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1489.337334294</v>
+      </c>
+      <c r="I239" t="n">
+        <v>135.00917413</v>
+      </c>
+      <c r="J239" t="n">
+        <v>32038</v>
+      </c>
+      <c r="K239" t="n">
+        <v>31909</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0.1181814814814815</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1474.714561202</v>
+      </c>
+      <c r="C240" t="n">
+        <v>46.127106028</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1428.587455172</v>
+      </c>
+      <c r="E240" t="n">
+        <v>129.465399804</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1598.487576286</v>
+      </c>
+      <c r="G240" t="n">
+        <v>42.496294682</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1555.991281604</v>
+      </c>
+      <c r="I240" t="n">
+        <v>133.674025916</v>
+      </c>
+      <c r="J240" t="n">
+        <v>32265</v>
+      </c>
+      <c r="K240" t="n">
+        <v>32116</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0.1189481481481482</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1451.476315256</v>
+      </c>
+      <c r="C241" t="n">
+        <v>46.548197864</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1404.928117392</v>
+      </c>
+      <c r="E241" t="n">
+        <v>129.88874686</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1597.535470326</v>
+      </c>
+      <c r="G241" t="n">
+        <v>42.59400263200001</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1554.941467694</v>
+      </c>
+      <c r="I241" t="n">
+        <v>134.163088778</v>
+      </c>
+      <c r="J241" t="n">
+        <v>32049</v>
+      </c>
+      <c r="K241" t="n">
+        <v>31914</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0.1182</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1413.942276478</v>
+      </c>
+      <c r="C242" t="n">
+        <v>46.609596916</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1367.332679562</v>
+      </c>
+      <c r="E242" t="n">
+        <v>129.605592</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1485.251727264</v>
+      </c>
+      <c r="G242" t="n">
+        <v>42.393972552</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1442.857754712</v>
+      </c>
+      <c r="I242" t="n">
+        <v>133.888715734</v>
+      </c>
+      <c r="J242" t="n">
+        <v>32121</v>
+      </c>
+      <c r="K242" t="n">
+        <v>31987</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0.1184703703703704</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1506.853285872</v>
+      </c>
+      <c r="C243" t="n">
+        <v>47.28377380000001</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1459.569512072</v>
+      </c>
+      <c r="E243" t="n">
+        <v>130.237218</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1613.302869156</v>
+      </c>
+      <c r="G243" t="n">
+        <v>42.296098194</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1571.006770962</v>
+      </c>
+      <c r="I243" t="n">
+        <v>134.482719936</v>
+      </c>
+      <c r="J243" t="n">
+        <v>32477</v>
+      </c>
+      <c r="K243" t="n">
+        <v>32344</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0.1197925925925926</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1531.642384546</v>
+      </c>
+      <c r="C244" t="n">
+        <v>46.482132494</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1485.160252052</v>
+      </c>
+      <c r="E244" t="n">
+        <v>129.375122656</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1651.34663987</v>
+      </c>
+      <c r="G244" t="n">
+        <v>42.245881672</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1609.100758198</v>
+      </c>
+      <c r="I244" t="n">
+        <v>133.64752204</v>
+      </c>
+      <c r="J244" t="n">
+        <v>32980</v>
+      </c>
+      <c r="K244" t="n">
+        <v>32841</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0.1216333333333333</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1518.255851842</v>
+      </c>
+      <c r="C245" t="n">
+        <v>46.63898124799999</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1471.616870594</v>
+      </c>
+      <c r="E245" t="n">
+        <v>129.454815288</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1691.61363359</v>
+      </c>
+      <c r="G245" t="n">
+        <v>42.201360918</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1649.412272672</v>
+      </c>
+      <c r="I245" t="n">
+        <v>133.726442204</v>
+      </c>
+      <c r="J245" t="n">
+        <v>32913</v>
+      </c>
+      <c r="K245" t="n">
+        <v>32772</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0.1213777777777778</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1533.149729914</v>
+      </c>
+      <c r="C246" t="n">
+        <v>46.894675</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1486.255054914</v>
+      </c>
+      <c r="E246" t="n">
+        <v>129.744150156</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1703.302953004</v>
+      </c>
+      <c r="G246" t="n">
+        <v>42.240111638</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1661.062841366</v>
+      </c>
+      <c r="I246" t="n">
+        <v>134.010643132</v>
+      </c>
+      <c r="J246" t="n">
+        <v>33456</v>
+      </c>
+      <c r="K246" t="n">
+        <v>33322</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0.1234148148148148</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1628.486049292</v>
+      </c>
+      <c r="C247" t="n">
+        <v>48.111539228</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1580.374510064</v>
+      </c>
+      <c r="E247" t="n">
+        <v>132.329766694</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1707.063083476</v>
+      </c>
+      <c r="G247" t="n">
+        <v>42.747847366</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1664.31523611</v>
+      </c>
+      <c r="I247" t="n">
+        <v>136.653297832</v>
+      </c>
+      <c r="J247" t="n">
+        <v>33245</v>
+      </c>
+      <c r="K247" t="n">
+        <v>33099</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0.1225888888888889</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1528.175377942</v>
+      </c>
+      <c r="C248" t="n">
+        <v>47.026957386</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1481.148420554</v>
+      </c>
+      <c r="E248" t="n">
+        <v>129.918155438</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1701.702776378</v>
+      </c>
+      <c r="G248" t="n">
+        <v>42.087291476</v>
+      </c>
+      <c r="H248" t="n">
+        <v>1659.615484904</v>
+      </c>
+      <c r="I248" t="n">
+        <v>134.24167673</v>
+      </c>
+      <c r="J248" t="n">
+        <v>33901</v>
+      </c>
+      <c r="K248" t="n">
+        <v>33749</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0.1249962962962963</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1555.9428757</v>
+      </c>
+      <c r="C249" t="n">
+        <v>46.77661768199999</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1509.166258018</v>
+      </c>
+      <c r="E249" t="n">
+        <v>128.941564492</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1704.371483072</v>
+      </c>
+      <c r="G249" t="n">
+        <v>41.86358488400001</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1662.507898188</v>
+      </c>
+      <c r="I249" t="n">
+        <v>133.199876352</v>
+      </c>
+      <c r="J249" t="n">
+        <v>33691</v>
+      </c>
+      <c r="K249" t="n">
+        <v>33552</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0.1242666666666667</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1512.331567364</v>
+      </c>
+      <c r="C250" t="n">
+        <v>46.77833564199999</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1465.553231722</v>
+      </c>
+      <c r="E250" t="n">
+        <v>128.732564208</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1646.062714444</v>
+      </c>
+      <c r="G250" t="n">
+        <v>41.70510487200001</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1604.357609572</v>
+      </c>
+      <c r="I250" t="n">
+        <v>132.969386506</v>
+      </c>
+      <c r="J250" t="n">
+        <v>33656</v>
+      </c>
+      <c r="K250" t="n">
+        <v>33517</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0.124137037037037</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1535.044064574</v>
+      </c>
+      <c r="C251" t="n">
+        <v>46.813333762</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1488.230730812</v>
+      </c>
+      <c r="E251" t="n">
+        <v>128.623340668</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1693.44587841</v>
+      </c>
+      <c r="G251" t="n">
+        <v>41.586018344</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1651.859860066</v>
+      </c>
+      <c r="I251" t="n">
+        <v>132.872549314</v>
+      </c>
+      <c r="J251" t="n">
+        <v>34154</v>
+      </c>
+      <c r="K251" t="n">
+        <v>34016</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0.1259851851851852</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1547.189972688</v>
+      </c>
+      <c r="C252" t="n">
+        <v>46.96978070199999</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1500.220191986</v>
+      </c>
+      <c r="E252" t="n">
+        <v>129.033418162</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1691.245159212</v>
+      </c>
+      <c r="G252" t="n">
+        <v>41.79271757999999</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1649.452441632</v>
+      </c>
+      <c r="I252" t="n">
+        <v>133.281459016</v>
+      </c>
+      <c r="J252" t="n">
+        <v>34282</v>
+      </c>
+      <c r="K252" t="n">
+        <v>34137</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0.1264333333333333</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1570.436973434</v>
+      </c>
+      <c r="C253" t="n">
+        <v>47.282288002</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1523.154685432</v>
+      </c>
+      <c r="E253" t="n">
+        <v>129.792928774</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1689.063638224</v>
+      </c>
+      <c r="G253" t="n">
+        <v>41.819638106</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1647.244000116</v>
+      </c>
+      <c r="I253" t="n">
+        <v>134.097004646</v>
+      </c>
+      <c r="J253" t="n">
+        <v>34352</v>
+      </c>
+      <c r="K253" t="n">
+        <v>34209</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0.1267</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1636.728620116</v>
+      </c>
+      <c r="C254" t="n">
+        <v>47.827581834</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1588.901038282</v>
+      </c>
+      <c r="E254" t="n">
+        <v>130.472734552</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1751.256309444</v>
+      </c>
+      <c r="G254" t="n">
+        <v>41.96941401</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1709.286895436</v>
+      </c>
+      <c r="I254" t="n">
+        <v>134.711625888</v>
+      </c>
+      <c r="J254" t="n">
+        <v>34744</v>
+      </c>
+      <c r="K254" t="n">
+        <v>34591</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0.1281148148148148</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1593.672111814</v>
+      </c>
+      <c r="C255" t="n">
+        <v>46.430666008</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1547.241445806</v>
+      </c>
+      <c r="E255" t="n">
+        <v>127.864167046</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1737.817014352</v>
+      </c>
+      <c r="G255" t="n">
+        <v>41.395955604</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1696.421058748</v>
+      </c>
+      <c r="I255" t="n">
+        <v>132.165624046</v>
+      </c>
+      <c r="J255" t="n">
+        <v>34576</v>
+      </c>
+      <c r="K255" t="n">
+        <v>34418</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0.1274740740740741</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1565.925898776</v>
+      </c>
+      <c r="C256" t="n">
+        <v>46.798269378</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1519.127629398</v>
+      </c>
+      <c r="E256" t="n">
+        <v>128.286502256</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1703.839102178</v>
+      </c>
+      <c r="G256" t="n">
+        <v>41.162501074</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1662.676601106</v>
+      </c>
+      <c r="I256" t="n">
+        <v>132.58232899</v>
+      </c>
+      <c r="J256" t="n">
+        <v>35078</v>
+      </c>
+      <c r="K256" t="n">
+        <v>34929</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0.1293666666666667</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1642.502745778</v>
+      </c>
+      <c r="C257" t="n">
+        <v>47.536626164</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1594.966119614</v>
+      </c>
+      <c r="E257" t="n">
+        <v>129.576840316</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1762.702427114</v>
+      </c>
+      <c r="G257" t="n">
+        <v>41.627287088</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1721.075140026</v>
+      </c>
+      <c r="I257" t="n">
+        <v>133.81882109</v>
+      </c>
+      <c r="J257" t="n">
+        <v>34969</v>
+      </c>
+      <c r="K257" t="n">
+        <v>34815</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0.1289444444444444</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1596.0931655</v>
+      </c>
+      <c r="C258" t="n">
+        <v>45.588173666</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1550.504991834</v>
+      </c>
+      <c r="E258" t="n">
+        <v>125.14626751</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1726.399613736</v>
+      </c>
+      <c r="G258" t="n">
+        <v>40.615467636</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1685.7841461</v>
+      </c>
+      <c r="I258" t="n">
+        <v>129.363158908</v>
+      </c>
+      <c r="J258" t="n">
+        <v>35358</v>
+      </c>
+      <c r="K258" t="n">
+        <v>35209</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0.1304037037037037</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1612.798923634</v>
+      </c>
+      <c r="C259" t="n">
+        <v>46.302820822</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1566.496102812</v>
+      </c>
+      <c r="E259" t="n">
+        <v>127.013003138</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1716.411234884</v>
+      </c>
+      <c r="G259" t="n">
+        <v>40.94674373599999</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1675.464491148</v>
+      </c>
+      <c r="I259" t="n">
+        <v>131.296689564</v>
+      </c>
+      <c r="J259" t="n">
+        <v>35817</v>
+      </c>
+      <c r="K259" t="n">
+        <v>35639</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0.1319962962962963</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1638.496050578</v>
+      </c>
+      <c r="C260" t="n">
+        <v>47.413534186</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1591.08251639</v>
+      </c>
+      <c r="E260" t="n">
+        <v>128.892088526</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1767.0429142</v>
+      </c>
+      <c r="G260" t="n">
+        <v>41.29935133</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1725.74356287</v>
+      </c>
+      <c r="I260" t="n">
+        <v>133.174226864</v>
+      </c>
+      <c r="J260" t="n">
+        <v>35455</v>
+      </c>
+      <c r="K260" t="n">
+        <v>35303</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0.1307518518518518</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1625.370635852</v>
+      </c>
+      <c r="C261" t="n">
+        <v>46.472965458</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1578.897670394</v>
+      </c>
+      <c r="E261" t="n">
+        <v>126.460810454</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1715.578761854</v>
+      </c>
+      <c r="G261" t="n">
+        <v>40.516686714</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1675.06207514</v>
+      </c>
+      <c r="I261" t="n">
+        <v>130.703456508</v>
+      </c>
+      <c r="J261" t="n">
+        <v>35891</v>
+      </c>
+      <c r="K261" t="n">
+        <v>35747</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0.1323962962962963</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1697.369243358</v>
+      </c>
+      <c r="C262" t="n">
+        <v>46.484955152</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1650.884288206</v>
+      </c>
+      <c r="E262" t="n">
+        <v>126.687034216</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1755.560248378</v>
+      </c>
+      <c r="G262" t="n">
+        <v>40.640020138</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1714.920228238</v>
+      </c>
+      <c r="I262" t="n">
+        <v>130.938550214</v>
+      </c>
+      <c r="J262" t="n">
+        <v>35893</v>
+      </c>
+      <c r="K262" t="n">
+        <v>35752</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0.1324148148148148</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1670.835691084</v>
+      </c>
+      <c r="C263" t="n">
+        <v>45.986642786</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1624.849048298</v>
+      </c>
+      <c r="E263" t="n">
+        <v>125.584955924</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1777.003840204</v>
+      </c>
+      <c r="G263" t="n">
+        <v>40.434633662</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1736.569206542</v>
+      </c>
+      <c r="I263" t="n">
+        <v>129.856103952</v>
+      </c>
+      <c r="J263" t="n">
+        <v>36350</v>
+      </c>
+      <c r="K263" t="n">
+        <v>36196</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0.1340592592592593</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1721.851991512</v>
+      </c>
+      <c r="C264" t="n">
+        <v>46.291253836</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1675.560737676</v>
+      </c>
+      <c r="E264" t="n">
+        <v>126.42501037</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1794.27319958</v>
+      </c>
+      <c r="G264" t="n">
+        <v>40.600011054</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1753.673188526</v>
+      </c>
+      <c r="I264" t="n">
+        <v>130.683720838</v>
+      </c>
+      <c r="J264" t="n">
+        <v>36339</v>
+      </c>
+      <c r="K264" t="n">
+        <v>36186</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0.1340222222222222</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1701.860354036</v>
+      </c>
+      <c r="C265" t="n">
+        <v>46.340576836</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1655.519777202</v>
+      </c>
+      <c r="E265" t="n">
+        <v>126.933236668</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1752.703467604</v>
+      </c>
+      <c r="G265" t="n">
+        <v>40.755811398</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1711.947656208</v>
+      </c>
+      <c r="I265" t="n">
+        <v>131.237857108</v>
+      </c>
+      <c r="J265" t="n">
+        <v>36532</v>
+      </c>
+      <c r="K265" t="n">
+        <v>36394</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0.1347925925925926</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1733.485695996</v>
+      </c>
+      <c r="C266" t="n">
+        <v>46.411242018</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1687.074453978</v>
+      </c>
+      <c r="E266" t="n">
+        <v>126.312433162</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1772.48608829</v>
+      </c>
+      <c r="G266" t="n">
+        <v>40.341850148</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1732.144238142</v>
+      </c>
+      <c r="I266" t="n">
+        <v>130.606945586</v>
+      </c>
+      <c r="J266" t="n">
+        <v>36661</v>
+      </c>
+      <c r="K266" t="n">
+        <v>36516</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0.1352444444444444</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1775.291633152</v>
+      </c>
+      <c r="C267" t="n">
+        <v>46.0425096</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1729.249123552</v>
+      </c>
+      <c r="E267" t="n">
+        <v>125.594163058</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1777.403730792</v>
+      </c>
+      <c r="G267" t="n">
+        <v>40.262004548</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1737.141726244</v>
+      </c>
+      <c r="I267" t="n">
+        <v>129.875654202</v>
+      </c>
+      <c r="J267" t="n">
+        <v>36645</v>
+      </c>
+      <c r="K267" t="n">
+        <v>36507</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0.1352111111111111</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1748.503685428</v>
+      </c>
+      <c r="C268" t="n">
+        <v>46.482921372</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1702.020764056</v>
+      </c>
+      <c r="E268" t="n">
+        <v>126.646764362</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1767.838113744</v>
+      </c>
+      <c r="G268" t="n">
+        <v>40.374048936</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1727.46406481</v>
+      </c>
+      <c r="I268" t="n">
+        <v>130.981576844</v>
+      </c>
+      <c r="J268" t="n">
+        <v>36680</v>
+      </c>
+      <c r="K268" t="n">
+        <v>36538</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0.1353259259259259</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1811.092440552</v>
+      </c>
+      <c r="C269" t="n">
+        <v>45.958538588</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1765.133901964</v>
+      </c>
+      <c r="E269" t="n">
+        <v>125.4185329</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1793.672291706</v>
+      </c>
+      <c r="G269" t="n">
+        <v>40.010255298</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1753.66203641</v>
+      </c>
+      <c r="I269" t="n">
+        <v>129.72422198</v>
+      </c>
+      <c r="J269" t="n">
+        <v>37020</v>
+      </c>
+      <c r="K269" t="n">
+        <v>36859</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0.1365148148148148</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1756.867659248</v>
+      </c>
+      <c r="C270" t="n">
+        <v>45.943545664</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1710.924113584</v>
+      </c>
+      <c r="E270" t="n">
+        <v>125.566223902</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1751.771423894</v>
+      </c>
+      <c r="G270" t="n">
+        <v>40.035276784</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1711.73614711</v>
+      </c>
+      <c r="I270" t="n">
+        <v>129.90586575</v>
+      </c>
+      <c r="J270" t="n">
+        <v>36809</v>
+      </c>
+      <c r="K270" t="n">
+        <v>36653</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0.1357518518518518</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1785.473078666</v>
+      </c>
+      <c r="C271" t="n">
+        <v>45.623644874</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1739.849433792</v>
+      </c>
+      <c r="E271" t="n">
+        <v>124.94462228</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1788.526593738</v>
+      </c>
+      <c r="G271" t="n">
+        <v>39.956242928</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1748.570350812</v>
+      </c>
+      <c r="I271" t="n">
+        <v>129.194565072</v>
+      </c>
+      <c r="J271" t="n">
+        <v>37265</v>
+      </c>
+      <c r="K271" t="n">
+        <v>37114</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0.1374592592592593</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1809.15815481</v>
+      </c>
+      <c r="C272" t="n">
+        <v>44.933656788</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1764.224498022</v>
+      </c>
+      <c r="E272" t="n">
+        <v>123.350499952</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1794.357295908</v>
+      </c>
+      <c r="G272" t="n">
+        <v>39.620366402</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1754.736929506</v>
+      </c>
+      <c r="I272" t="n">
+        <v>127.6421125</v>
+      </c>
+      <c r="J272" t="n">
+        <v>37484</v>
+      </c>
+      <c r="K272" t="n">
+        <v>37336</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0.1382814814814815</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1822.78924925</v>
+      </c>
+      <c r="C273" t="n">
+        <v>46.063228228</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1776.726021022</v>
+      </c>
+      <c r="E273" t="n">
+        <v>125.417080812</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1764.647102744</v>
+      </c>
+      <c r="G273" t="n">
+        <v>39.849844004</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1724.79725874</v>
+      </c>
+      <c r="I273" t="n">
+        <v>129.728217182</v>
+      </c>
+      <c r="J273" t="n">
+        <v>37667</v>
+      </c>
+      <c r="K273" t="n">
+        <v>37501</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0.1388925925925926</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1806.83244421</v>
+      </c>
+      <c r="C274" t="n">
+        <v>46.43630625799999</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1760.396137952</v>
+      </c>
+      <c r="E274" t="n">
+        <v>126.34959824</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1751.509561784</v>
+      </c>
+      <c r="G274" t="n">
+        <v>40.111780866</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1711.39778092</v>
+      </c>
+      <c r="I274" t="n">
+        <v>130.671998868</v>
+      </c>
+      <c r="J274" t="n">
+        <v>37654</v>
+      </c>
+      <c r="K274" t="n">
+        <v>37493</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0.138862962962963</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1831.305709702</v>
+      </c>
+      <c r="C275" t="n">
+        <v>45.143736108</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1786.161973594</v>
+      </c>
+      <c r="E275" t="n">
+        <v>123.558544036</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1761.881166036</v>
+      </c>
+      <c r="G275" t="n">
+        <v>39.491997272</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1722.389168766</v>
+      </c>
+      <c r="I275" t="n">
+        <v>127.853335064</v>
+      </c>
+      <c r="J275" t="n">
+        <v>38254</v>
+      </c>
+      <c r="K275" t="n">
+        <v>38112</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0.1411555555555556</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1909.05457445</v>
+      </c>
+      <c r="C276" t="n">
+        <v>45.669895458</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1863.384678992</v>
+      </c>
+      <c r="E276" t="n">
+        <v>124.70186059</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1823.766795408</v>
+      </c>
+      <c r="G276" t="n">
+        <v>39.742649956</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1784.02414545</v>
+      </c>
+      <c r="I276" t="n">
+        <v>128.973208074</v>
+      </c>
+      <c r="J276" t="n">
+        <v>38215</v>
+      </c>
+      <c r="K276" t="n">
+        <v>38061</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0.1409666666666667</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1871.743031486</v>
+      </c>
+      <c r="C277" t="n">
+        <v>45.464188972</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1826.278842514</v>
+      </c>
+      <c r="E277" t="n">
+        <v>123.942854958</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1775.245886654</v>
+      </c>
+      <c r="G277" t="n">
+        <v>39.605092714</v>
+      </c>
+      <c r="H277" t="n">
+        <v>1735.64079394</v>
+      </c>
+      <c r="I277" t="n">
+        <v>128.20853713</v>
+      </c>
+      <c r="J277" t="n">
+        <v>38435</v>
+      </c>
+      <c r="K277" t="n">
+        <v>38290</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0.1418148148148148</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1864.125163182</v>
+      </c>
+      <c r="C278" t="n">
+        <v>45.357858452</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1818.76730473</v>
+      </c>
+      <c r="E278" t="n">
+        <v>123.669916268</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1778.468641252</v>
+      </c>
+      <c r="G278" t="n">
+        <v>39.424553232</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1739.04408802</v>
+      </c>
+      <c r="I278" t="n">
+        <v>127.927006828</v>
+      </c>
+      <c r="J278" t="n">
+        <v>38381</v>
+      </c>
+      <c r="K278" t="n">
+        <v>38219</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0.1415518518518518</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1845.645546684</v>
+      </c>
+      <c r="C279" t="n">
+        <v>45.231622522</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1800.413924162</v>
+      </c>
+      <c r="E279" t="n">
+        <v>123.325997846</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1766.455684284</v>
+      </c>
+      <c r="G279" t="n">
+        <v>39.235400266</v>
+      </c>
+      <c r="H279" t="n">
+        <v>1727.220284018</v>
+      </c>
+      <c r="I279" t="n">
+        <v>127.63165502</v>
+      </c>
+      <c r="J279" t="n">
+        <v>38395</v>
+      </c>
+      <c r="K279" t="n">
+        <v>38237</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0.1416185185185185</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1921.238644442</v>
+      </c>
+      <c r="C280" t="n">
+        <v>45.49324687</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1875.745397572</v>
+      </c>
+      <c r="E280" t="n">
+        <v>123.590581688</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1801.083130218</v>
+      </c>
+      <c r="G280" t="n">
+        <v>39.344629984</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1761.738500234</v>
+      </c>
+      <c r="I280" t="n">
+        <v>127.908032094</v>
+      </c>
+      <c r="J280" t="n">
+        <v>38720</v>
+      </c>
+      <c r="K280" t="n">
+        <v>38566</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0.142837037037037</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1902.725898226</v>
+      </c>
+      <c r="C281" t="n">
+        <v>44.79910544</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1857.926792784</v>
+      </c>
+      <c r="E281" t="n">
+        <v>122.51702623</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1773.692419222</v>
+      </c>
+      <c r="G281" t="n">
+        <v>38.97079536</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1734.72162386</v>
+      </c>
+      <c r="I281" t="n">
+        <v>126.856315006</v>
+      </c>
+      <c r="J281" t="n">
+        <v>38784</v>
+      </c>
+      <c r="K281" t="n">
+        <v>38624</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0.1430518518518518</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1930.518075246</v>
+      </c>
+      <c r="C282" t="n">
+        <v>44.44145757</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1886.076617676</v>
+      </c>
+      <c r="E282" t="n">
+        <v>121.565417124</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1804.422468922</v>
+      </c>
+      <c r="G282" t="n">
+        <v>38.74146928</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1765.680999642</v>
+      </c>
+      <c r="I282" t="n">
+        <v>125.857344972</v>
+      </c>
+      <c r="J282" t="n">
+        <v>39255</v>
+      </c>
+      <c r="K282" t="n">
+        <v>39094</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0.1447925925925926</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1898.058538078</v>
+      </c>
+      <c r="C283" t="n">
+        <v>44.993864942</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1853.064673136</v>
+      </c>
+      <c r="E283" t="n">
+        <v>122.69418094</v>
+      </c>
+      <c r="F283" t="n">
+        <v>1776.62605443</v>
+      </c>
+      <c r="G283" t="n">
+        <v>38.983541854</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1737.642512576</v>
+      </c>
+      <c r="I283" t="n">
+        <v>126.997983528</v>
+      </c>
+      <c r="J283" t="n">
+        <v>38918</v>
+      </c>
+      <c r="K283" t="n">
+        <v>38765</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0.1435740740740741</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1857.921050326</v>
+      </c>
+      <c r="C284" t="n">
+        <v>44.72616476</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1813.194885568</v>
+      </c>
+      <c r="E284" t="n">
+        <v>122.36508523</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1769.355917822</v>
+      </c>
+      <c r="G284" t="n">
+        <v>38.887454682</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1730.46846314</v>
+      </c>
+      <c r="I284" t="n">
+        <v>126.66372627</v>
+      </c>
+      <c r="J284" t="n">
+        <v>39044</v>
+      </c>
+      <c r="K284" t="n">
+        <v>38891</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0.1440407407407407</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1896.297763588</v>
+      </c>
+      <c r="C285" t="n">
+        <v>44.357138766</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1851.940624822</v>
+      </c>
+      <c r="E285" t="n">
+        <v>121.273382858</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1764.84914341</v>
+      </c>
+      <c r="G285" t="n">
+        <v>38.674037924</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1726.175105486</v>
+      </c>
+      <c r="I285" t="n">
+        <v>125.570028832</v>
+      </c>
+      <c r="J285" t="n">
+        <v>39502</v>
+      </c>
+      <c r="K285" t="n">
+        <v>39342</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0.1457111111111111</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1972.515129394</v>
+      </c>
+      <c r="C286" t="n">
+        <v>44.96039448000001</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1927.554734914</v>
+      </c>
+      <c r="E286" t="n">
+        <v>122.755638906</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1805.08110634</v>
+      </c>
+      <c r="G286" t="n">
+        <v>38.975145238</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1766.105961102</v>
+      </c>
+      <c r="I286" t="n">
+        <v>127.044380678</v>
+      </c>
+      <c r="J286" t="n">
+        <v>39762</v>
+      </c>
+      <c r="K286" t="n">
+        <v>39590</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0.1466296296296296</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1954.944126838</v>
+      </c>
+      <c r="C287" t="n">
+        <v>44.76684475</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1910.177282088</v>
+      </c>
+      <c r="E287" t="n">
+        <v>122.24401433</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1774.185509574</v>
+      </c>
+      <c r="G287" t="n">
+        <v>38.577810124</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1735.60769945</v>
+      </c>
+      <c r="I287" t="n">
+        <v>126.592466158</v>
+      </c>
+      <c r="J287" t="n">
+        <v>40011</v>
+      </c>
+      <c r="K287" t="n">
+        <v>39847</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0.1475814814814815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
